--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E910FE3-A750-4747-9593-C65F6F4305E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7278EF6B-5312-43A7-9662-A75541465584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Basic Information</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>For example: Case1_9v_3f</t>
+  </si>
+  <si>
+    <t>Case1_9v_3f</t>
+  </si>
+  <si>
+    <t>Open issue</t>
+  </si>
+  <si>
+    <t>AIC and BIC different, parameter estimates: only Std.all identical</t>
+  </si>
+  <si>
+    <t>different values, but in same range</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Case2_8v_4f</t>
   </si>
 </sst>
 </file>
@@ -121,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -321,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -345,6 +369,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,25 +423,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,98 +754,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="24.73046875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.59765625" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" customWidth="1"/>
+    <col min="10" max="10" width="19.59765625" customWidth="1"/>
+    <col min="11" max="11" width="31.3984375" customWidth="1"/>
+    <col min="12" max="12" width="17.59765625" customWidth="1"/>
+    <col min="13" max="13" width="24.59765625" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="26" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="27"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="22"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
@@ -821,8 +860,8 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -865,232 +904,271 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="29"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="29"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1105,7 +1183,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1120,7 +1198,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1135,7 +1213,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1150,7 +1228,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1165,7 +1243,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1180,7 +1258,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1195,7 +1273,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1210,7 +1288,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1225,7 +1303,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1240,7 +1318,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1255,7 +1333,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1270,7 +1348,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1285,7 +1363,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1300,7 +1378,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1315,7 +1393,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1330,7 +1408,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1347,6 +1425,10 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:N1"/>
@@ -1356,10 +1438,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7278EF6B-5312-43A7-9662-A75541465584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3FB052-5CE7-43C5-ABF5-8F71B337E632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>Basic Information</t>
   </si>
@@ -109,6 +109,42 @@
   </si>
   <si>
     <t>Case2_8v_4f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latent variables, covariances, variances identical </t>
+  </si>
+  <si>
+    <t>Case3_8v_2f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resid. Cov.matrix, latent variables, covariances: identical; standard. Resid. Matrix: different values, but same range </t>
+  </si>
+  <si>
+    <t xml:space="preserve">different values, but mostly in same range </t>
+  </si>
+  <si>
+    <t>no modification indices</t>
+  </si>
+  <si>
+    <t>SRMR, RMSEA, TLI identical</t>
+  </si>
+  <si>
+    <t>Case4_12v_3f</t>
+  </si>
+  <si>
+    <t>Report generation error. Please contact the support@statsomat.com.</t>
+  </si>
+  <si>
+    <t>Case5_8v_2f</t>
+  </si>
+  <si>
+    <t>Case6_5v_2f</t>
+  </si>
+  <si>
+    <t>no modification indices listed, in book (p. 286): 2 modification indices larger than 4</t>
+  </si>
+  <si>
+    <t>RMSEA, SRMR: same range</t>
   </si>
 </sst>
 </file>
@@ -139,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -424,18 +466,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -764,7 +806,7 @@
     <col min="2" max="2" width="17.3984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="22.59765625" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" customWidth="1"/>
     <col min="6" max="6" width="24.73046875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="26.59765625" customWidth="1"/>
@@ -909,36 +951,36 @@
         <v>22</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="33" t="s">
+      <c r="L5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -946,227 +988,321 @@
       <c r="A6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="29"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="29"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="29"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="29"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="29"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="29"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="29"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="29"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="29"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="29"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="29"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="29"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3FB052-5CE7-43C5-ABF5-8F71B337E632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A9BB62-DA02-4376-98F3-BB8615C670F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -797,7 +797,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1160,7 +1160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA9837-1E76-4DFB-9759-B660F1CB5F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE064B6-8250-4D78-9083-A811668AEB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Basic Information</t>
   </si>
@@ -75,16 +75,10 @@
     <t xml:space="preserve">different values, but mostly in same range </t>
   </si>
   <si>
-    <t>no modification indices</t>
-  </si>
-  <si>
     <t>SRMR, RMSEA, TLI identical</t>
   </si>
   <si>
     <t>Case4_12v_3f</t>
-  </si>
-  <si>
-    <t>Report generation error. Please contact the support@statsomat.com.</t>
   </si>
   <si>
     <t>Case5_8v_2f</t>
@@ -329,6 +323,9 @@
   </si>
   <si>
     <t>App settings</t>
+  </si>
+  <si>
+    <t>Something is wrong with data format. There are 2 decimal characters. Please update the dataset.</t>
   </si>
 </sst>
 </file>
@@ -935,99 +932,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1053,15 +957,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1069,11 +964,113 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1392,7 +1389,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1405,7 +1402,7 @@
     <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" style="2" customWidth="1"/>
@@ -1417,241 +1414,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="49"/>
+    </row>
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="35" t="s">
+      <c r="E4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="O5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="P5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="43" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="6" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="57" t="s">
+    <row r="7" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1660,42 +1653,28 @@
       <c r="I7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="8" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1704,28 +1683,20 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="57" t="s">
-        <v>20</v>
+    <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1734,28 +1705,20 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="57" t="s">
-        <v>21</v>
+    <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6" t="s">
@@ -1766,25 +1729,21 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1801,8 +1760,8 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1819,8 +1778,8 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1837,8 +1796,8 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="57"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1855,8 +1814,8 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1873,8 +1832,8 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1891,8 +1850,8 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="57"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1909,8 +1868,8 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="57"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1927,8 +1886,8 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2218,6 +2177,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="B1:B3"/>
@@ -2234,8 +2195,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE064B6-8250-4D78-9083-A811668AEB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AD277-C17B-43B5-86AE-E451D5E5B5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>Basic Information</t>
   </si>
@@ -69,13 +69,7 @@
     <t>Case3_8v_2f</t>
   </si>
   <si>
-    <t xml:space="preserve">resid. Cov.matrix, latent variables, covariances: identical; standard. Resid. Matrix: different values, but same range </t>
-  </si>
-  <si>
     <t xml:space="preserve">different values, but mostly in same range </t>
-  </si>
-  <si>
-    <t>SRMR, RMSEA, TLI identical</t>
   </si>
   <si>
     <t>Case4_12v_3f</t>
@@ -307,9 +301,6 @@
     <t>Numerical values</t>
   </si>
   <si>
-    <t>Numerical values. Consider only the GOF measures: Model Test User Model (chi2 in some texts), TLI, RMSEA, SRMR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assumptions </t>
   </si>
   <si>
@@ -326,6 +317,39 @@
   </si>
   <si>
     <t>Something is wrong with data format. There are 2 decimal characters. Please update the dataset.</t>
+  </si>
+  <si>
+    <t>Numerical values. Consider only the GOF measures: Model Test User Model (chi2 in some texts), TLI, RMSEA, SRMR,Cfi</t>
+  </si>
+  <si>
+    <t>Source: "all of the overall goodness-of-fit indices suggest that the  two-factor model does fit the data well"</t>
+  </si>
+  <si>
+    <t>normally distributed (tested)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resid. Cov.matrix, latent variables, covariances: identical; standard. Resid. Matrix: different values, but same range; SRMR, RMSEA, TLI, CFI identical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: "Inspection of standardized residuals and modification indices indicated no  localized points of ill fit in the solution." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: "All freely estimated unstandardized parameters were statistically significant. Moreover, estimates from the two-factor  solution indicate a moderate relationship between the dimensions of Neuroticism and Extraversion (–.435), in accord with previous evidence and theory." </t>
+  </si>
+  <si>
+    <t>not available in source</t>
+  </si>
+  <si>
+    <t>not available</t>
+  </si>
+  <si>
+    <t>Not available in source</t>
+  </si>
+  <si>
+    <t>identical</t>
+  </si>
+  <si>
+    <t>maximum likelihood minimization function, no missing values, unstandardized parameter  estimates (completely standardized estimates and partially standardized estimates also available)</t>
   </si>
 </sst>
 </file>
@@ -901,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -964,6 +988,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,23 +1096,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1388,290 +1415,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.265625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.59765625" style="2" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="38" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="43"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="39"/>
+    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="32"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="55"/>
+    </row>
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="21"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="33"/>
       <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="33"/>
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="F7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="33"/>
+      <c r="B8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="23" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1685,14 +1728,12 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="33"/>
       <c r="B9" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
@@ -1707,14 +1748,12 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="33"/>
       <c r="B10" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
@@ -1725,14 +1764,14 @@
         <v>11</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1741,8 +1780,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="33"/>
       <c r="B11" s="23"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1759,8 +1798,8 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="33"/>
       <c r="B12" s="23"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1777,8 +1816,8 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="33"/>
       <c r="B13" s="23"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1795,8 +1834,8 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="33"/>
       <c r="B14" s="23"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1813,8 +1852,8 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="33"/>
       <c r="B15" s="23"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1831,8 +1870,8 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="33"/>
       <c r="B16" s="23"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1849,8 +1888,8 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="33"/>
       <c r="B17" s="23"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1867,8 +1906,8 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="33"/>
       <c r="B18" s="23"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1885,8 +1924,8 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+    <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="34"/>
       <c r="B19" s="23"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1903,7 +1942,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1919,7 +1958,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1935,7 +1974,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1951,7 +1990,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1967,7 +2006,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1983,7 +2022,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1999,7 +2038,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2015,7 +2054,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2031,7 +2070,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2047,7 +2086,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2063,7 +2102,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2079,7 +2118,7 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2095,7 +2134,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2111,7 +2150,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2127,7 +2166,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2143,7 +2182,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2159,7 +2198,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2177,11 +2216,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="B1:B3"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="E2:E3"/>
@@ -2195,6 +2229,11 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A19"/>
+    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AD277-C17B-43B5-86AE-E451D5E5B5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43862B0-FCF4-4BD0-B172-DBA22FCC9F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -328,9 +328,6 @@
     <t>normally distributed (tested)</t>
   </si>
   <si>
-    <t xml:space="preserve">resid. Cov.matrix, latent variables, covariances: identical; standard. Resid. Matrix: different values, but same range; SRMR, RMSEA, TLI, CFI identical </t>
-  </si>
-  <si>
     <t xml:space="preserve">Source: "Inspection of standardized residuals and modification indices indicated no  localized points of ill fit in the solution." </t>
   </si>
   <si>
@@ -350,6 +347,9 @@
   </si>
   <si>
     <t>maximum likelihood minimization function, no missing values, unstandardized parameter  estimates (completely standardized estimates and partially standardized estimates also available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latent variables: identical; SRMR, RMSEA, TLI, CFI identical </t>
   </si>
 </sst>
 </file>
@@ -1415,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1674,38 +1674,38 @@
         <v>49</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="L7" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43862B0-FCF4-4BD0-B172-DBA22FCC9F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46A106F-3C4D-4D2F-A8B3-E644086725C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>Basic Information</t>
   </si>
@@ -316,9 +316,6 @@
     <t>App settings</t>
   </si>
   <si>
-    <t>Something is wrong with data format. There are 2 decimal characters. Please update the dataset.</t>
-  </si>
-  <si>
     <t>Numerical values. Consider only the GOF measures: Model Test User Model (chi2 in some texts), TLI, RMSEA, SRMR,Cfi</t>
   </si>
   <si>
@@ -350,6 +347,52 @@
   </si>
   <si>
     <t xml:space="preserve">latent variables: identical; SRMR, RMSEA, TLI, CFI identical </t>
+  </si>
+  <si>
+    <t>simulated dataset</t>
+  </si>
+  <si>
+    <t>chi2, SRMR, RMSEA, TLI: same range; CFI: identical</t>
+  </si>
+  <si>
+    <t>same range</t>
+  </si>
+  <si>
+    <t>x4-social and x1-x2: identified as modification indices; x11-x12 and x9-x10: not identified</t>
+  </si>
+  <si>
+    <t>Source: "All freely estimated parameters are statistically significant."</t>
+  </si>
+  <si>
+    <t>"fit indices are consistent with good model fit"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: "standardized residuals (5.04) and modification indices (d12,11 = 25.94) indicate  that the relationship between these items has not been adequately reproduced by the  model’s parameter estimates."
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not available </t>
+  </si>
+  <si>
+    <t>completely standardized,  uses value command to fix unstandardized loading to 1, Maximum likelihood</t>
+  </si>
+  <si>
+    <t>same modification indices identified, but different values</t>
+  </si>
+  <si>
+    <t>Values of the CFI and SRMR are, respectively, .959 and .072, and neither result is  clearly problematic.</t>
+  </si>
+  <si>
+    <t>Source:"Most of the larger and positive residuals are between Hand Movements and other tasks specified to measure the other factor. Because the standardized  pattern coefficient of Hand Movements is at least moderate (.497; Table 13.3), it is possible that this task may measure both factors."</t>
+  </si>
+  <si>
+    <t>Source: "handmov is not specified to measure Simul"</t>
+  </si>
+  <si>
+    <t>first indicator as marker variable (factor loading of first indicator=1), not standardized</t>
   </si>
 </sst>
 </file>
@@ -925,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1098,6 +1141,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1416,7 +1465,10 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1545,7 +1597,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>40</v>
@@ -1671,41 +1723,41 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="L7" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1713,22 +1765,46 @@
       <c r="B8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="62"/>
+      <c r="P8" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="33"/>
@@ -1736,19 +1812,39 @@
         <v>16</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="I9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="33"/>
@@ -2215,7 +2311,8 @@
       <c r="P36" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="E2:E3"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46A106F-3C4D-4D2F-A8B3-E644086725C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8904CD-5E9E-417C-81CE-AAF9C5D36CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>Basic Information</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Case1_9v_3f</t>
-  </si>
-  <si>
-    <t>Open issue</t>
   </si>
   <si>
     <t>-</t>
@@ -393,6 +390,39 @@
   </si>
   <si>
     <t>first indicator as marker variable (factor loading of first indicator=1), not standardized</t>
+  </si>
+  <si>
+    <t>Source: "The  value of the RMSEA is .057, which does not seem terrible, but the upper bound of its 90%  confidence interval, .103, is so high that the poor-fit hypothesis cannot be rejected. The  fit of the analyzed path model (Figure 7.5) is about 96.2% better than that of the independence model (CFI = .962), which in LISREL assumes zero population covariances for  all pairs of measured variables. Neither the value of the CFI nor that of the SRMR, which  equals .051 (see the table), indicates a glaring problem."</t>
+  </si>
+  <si>
+    <t>source: "Inspection of the residuals for the four-factor CFA model indicated few apparent problems. For example, two absolute correlation residuals (computed in EQS) just  exceed .10, which is not a bad result in a larger model."</t>
+  </si>
+  <si>
+    <t>source: "values of approximate-fit indexes  for the four-factor model are generally favorable"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum likelihood estimation </t>
+  </si>
+  <si>
+    <t>source: "Values  of standardized pattern coefficients for indicators of some factors, such as job satisfaction (range = .749–.839), are uniformly high. A few other standardized coefficients are  rather low, such as .433 for the self-talk indicator of constructive thinking, so evidence  for convergent validity is mixed."</t>
+  </si>
+  <si>
+    <t>Case8_12v_4f</t>
+  </si>
+  <si>
+    <t>Case9_7v_3f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same range </t>
+  </si>
+  <si>
+    <t>Squaring this loading produces the reliability coefficient used to calculate the error variance of GENHLTH—that is, .9432 = .89 (cf. Eq. 3.5, Chapter 3). Correlations involving  the GWB factor reflect the relationship of the GENHLTH indicator with other variables  in the model, adjusted for measurement error; for instance, the correlation of GENHLTH  with Physical Functioning is .642. The factor loading of Age on the Age “factor” is 1.00,  reflecting a perfect relationship between the observed measure and its underlying “true”  score.</t>
+  </si>
+  <si>
+    <t>Maximum likelihood estimation, unstandardized, The unstandardized factor loading of the single indicator  is fixed to 1.0</t>
+  </si>
+  <si>
+    <t>Source: "The model fits the data reasonably well"</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1495,10 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1494,7 +1524,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>8</v>
@@ -1503,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>5</v>
@@ -1531,26 +1561,26 @@
         <v>1</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="59"/>
       <c r="H2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="46" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="50" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>23</v>
       </c>
       <c r="N2" s="50" t="s">
         <v>3</v>
@@ -1569,10 +1599,10 @@
       <c r="D3" s="29"/>
       <c r="E3" s="45"/>
       <c r="F3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -1591,326 +1621,386 @@
         <v>7</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="33"/>
       <c r="B6" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="33"/>
       <c r="B7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="L7" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="33"/>
       <c r="B8" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="L8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="61" t="s">
         <v>62</v>
-      </c>
-      <c r="N8" s="61" t="s">
-        <v>63</v>
       </c>
       <c r="O8" s="62"/>
       <c r="P8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="33"/>
       <c r="B9" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="O9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="33"/>
       <c r="B10" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="P10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="63.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="33"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="33"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="B12" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="33"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8904CD-5E9E-417C-81CE-AAF9C5D36CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02454DF6-C307-4123-91E6-C9B625D9D7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
   <si>
     <t>Basic Information</t>
   </si>
@@ -423,6 +423,27 @@
   </si>
   <si>
     <t>Source: "The model fits the data reasonably well"</t>
+  </si>
+  <si>
+    <t>Case10_12v_2f</t>
+  </si>
+  <si>
+    <t>CFI ist mit .976 fast sehr gut (.980 wäre sehr gut), RMSEA mit 0.039 ebenfalls gut (der Wert sollte kleiner .05 sein, idealerweise auch der Wert des oberen Konfidenzintervalls, der hier 0.077 ist)</t>
+  </si>
+  <si>
+    <t>Für einen guten Modellfit sprechen: CFI &gt; .90 (Der CFI vergleicht das spezifizierte Modell mit dem theoretisch schlechtesten Modell) RMSEA &lt; 0,05 (Der RMSEA zeigt an, wie gut sich die Daten mit Hilfe des spezifizierten Modell reproduzieren lassen. Je kleiner die Abweichungen, desto besser) RMSR &lt; 0,10 (ähnlich wie der RMSEA, berücksichtigt jedoch nicht die Stichprobengröße für die Bewertung der Abweichung)</t>
+  </si>
+  <si>
+    <t>Maximum Likelihood Estimation, first loading of each factor to 1</t>
+  </si>
+  <si>
+    <t>Maximum Likelihood Estimation,variance of each factor to 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wrong" standardization method -&gt; different values </t>
+  </si>
+  <si>
+    <t>In our one factor solution, we see that the chi-square is rejected. This usually happens for large samples (in this case we have N=2571). The RMSEA is 0.100 which indicates mediocre fit. The CFI is 0.906 and the TLI is 0.859, almost but not quite at the threshold of 0.95 and 0.90.</t>
   </si>
 </sst>
 </file>
@@ -1061,6 +1082,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,81 +1198,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,11 +1515,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1523,96 +1544,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="43"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="44" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="46" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="32"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="55"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16" s="12" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="21"/>
@@ -1661,7 +1682,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="58" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1703,7 +1724,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1768,7 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="33"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
@@ -1774,7 +1795,7 @@
       <c r="K7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="24" t="s">
         <v>50</v>
       </c>
       <c r="M7" s="7" t="s">
@@ -1791,7 +1812,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="33"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
@@ -1828,16 +1849,16 @@
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="62"/>
+      <c r="O8" s="26"/>
       <c r="P8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="33"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
@@ -1877,7 +1898,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
@@ -1915,7 +1936,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="63.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="33"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="23" t="s">
         <v>76</v>
       </c>
@@ -1957,7 +1978,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="23" t="s">
         <v>77</v>
       </c>
@@ -2002,44 +2023,92 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="33"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
+    <row r="13" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="58"/>
+      <c r="B13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="58"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="33"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="23"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2057,7 +2126,7 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="23"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2075,7 +2144,7 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="33"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="23"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2093,7 +2162,7 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="23"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2111,7 +2180,7 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="34"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="23"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2402,6 +2471,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A19"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
@@ -2416,11 +2490,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02454DF6-C307-4123-91E6-C9B625D9D7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC05768-001D-4F83-9E2F-F1A667EB1C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>Basic Information</t>
   </si>
@@ -428,6 +428,9 @@
     <t>Case10_12v_2f</t>
   </si>
   <si>
+    <t>Maximum Likelihood Estimation</t>
+  </si>
+  <si>
     <t>CFI ist mit .976 fast sehr gut (.980 wäre sehr gut), RMSEA mit 0.039 ebenfalls gut (der Wert sollte kleiner .05 sein, idealerweise auch der Wert des oberen Konfidenzintervalls, der hier 0.077 ist)</t>
   </si>
   <si>
@@ -444,6 +447,21 @@
   </si>
   <si>
     <t>In our one factor solution, we see that the chi-square is rejected. This usually happens for large samples (in this case we have N=2571). The RMSEA is 0.100 which indicates mediocre fit. The CFI is 0.906 and the TLI is 0.859, almost but not quite at the threshold of 0.95 and 0.90.</t>
+  </si>
+  <si>
+    <t>Case11_8v_1f</t>
+  </si>
+  <si>
+    <t>Case12_6v_1f</t>
+  </si>
+  <si>
+    <t>the one factor model did not fit the data well</t>
+  </si>
+  <si>
+    <t>Case11_8v_2f</t>
+  </si>
+  <si>
+    <t>Notice that compared to the uncorrelated two-factor solution, the chi-square and RMSEA are both lower. The test of RMSEA is not significant which means that we do not reject the null hypothesis that the RMSEA is less than or equal to 0.05. Additionally the CFI and TLI are both higher and pass the 0.95 threshold. This is even better fitting than the one-factor solution</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1199,6 +1217,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1513,13 +1535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -2033,7 +2055,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2050,10 +2072,10 @@
         <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>50</v>
@@ -2067,17 +2089,19 @@
     </row>
     <row r="14" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="58"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="23" t="s">
+        <v>90</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>50</v>
@@ -2092,7 +2116,7 @@
         <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>50</v>
@@ -2107,41 +2131,93 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" s="64" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="58"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B15" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="58"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="B16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="58"/>
@@ -2179,8 +2255,8 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="59"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" s="58"/>
       <c r="B19" s="23"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2197,21 +2273,23 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+    <row r="20" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="59"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C21" s="4"/>
@@ -2454,27 +2532,43 @@
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A5:A19"/>
+    <mergeCell ref="A5:A20"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC05768-001D-4F83-9E2F-F1A667EB1C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFD0AF-174E-4CED-8972-8E8CB7622426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
   <si>
     <t>Basic Information</t>
   </si>
@@ -374,9 +374,6 @@
     <t xml:space="preserve">not available </t>
   </si>
   <si>
-    <t>completely standardized,  uses value command to fix unstandardized loading to 1, Maximum likelihood</t>
-  </si>
-  <si>
     <t>same modification indices identified, but different values</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>Source: "handmov is not specified to measure Simul"</t>
   </si>
   <si>
-    <t>first indicator as marker variable (factor loading of first indicator=1), not standardized</t>
-  </si>
-  <si>
     <t>Source: "The  value of the RMSEA is .057, which does not seem terrible, but the upper bound of its 90%  confidence interval, .103, is so high that the poor-fit hypothesis cannot be rejected. The  fit of the analyzed path model (Figure 7.5) is about 96.2% better than that of the independence model (CFI = .962), which in LISREL assumes zero population covariances for  all pairs of measured variables. Neither the value of the CFI nor that of the SRMR, which  equals .051 (see the table), indicates a glaring problem."</t>
   </si>
   <si>
@@ -462,13 +456,49 @@
   </si>
   <si>
     <t>Notice that compared to the uncorrelated two-factor solution, the chi-square and RMSEA are both lower. The test of RMSEA is not significant which means that we do not reject the null hypothesis that the RMSEA is less than or equal to 0.05. Additionally the CFI and TLI are both higher and pass the 0.95 threshold. This is even better fitting than the one-factor solution</t>
+  </si>
+  <si>
+    <t>Case12_6v_2f</t>
+  </si>
+  <si>
+    <t>the two factor model had a good fit</t>
+  </si>
+  <si>
+    <t>Case13_21v_1f</t>
+  </si>
+  <si>
+    <t>The upload process works, but the generation of the report doesn't work, even if try different variables and latent variables. The case runs locally in R.</t>
+  </si>
+  <si>
+    <t>Case14_11v_3f</t>
+  </si>
+  <si>
+    <t>ML estimation</t>
+  </si>
+  <si>
+    <t>Case15__2f</t>
+  </si>
+  <si>
+    <t>ML Estimation, variance of each factor to 1</t>
+  </si>
+  <si>
+    <t>the 2-factor model is bad </t>
+  </si>
+  <si>
+    <t>different beacause of different standardization method</t>
+  </si>
+  <si>
+    <t>first loading of each factor to 1, Maximum likelihood</t>
+  </si>
+  <si>
+    <t>first indicator as marker variable (factor loading of first indicator=1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +524,12 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1037,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1221,6 +1257,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1538,10 +1577,10 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1844,8 +1883,8 @@
       <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>65</v>
+      <c r="E8" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>57</v>
@@ -1888,8 +1927,8 @@
       <c r="D9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>70</v>
+      <c r="E9" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
@@ -1901,22 +1940,22 @@
         <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1942,7 +1981,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>50</v>
@@ -1960,14 +1999,14 @@
     <row r="11" spans="1:16" ht="63.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="58"/>
       <c r="B11" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1987,32 +2026,32 @@
         <v>50</v>
       </c>
       <c r="M11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="58"/>
       <c r="B12" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>58</v>
@@ -2033,7 +2072,7 @@
         <v>50</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>50</v>
@@ -2042,20 +2081,20 @@
         <v>50</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="58"/>
       <c r="B13" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2072,10 +2111,10 @@
         <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>50</v>
@@ -2090,33 +2129,33 @@
     <row r="14" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="58"/>
       <c r="B14" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>50</v>
@@ -2134,14 +2173,14 @@
     <row r="15" spans="1:16" s="64" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="58"/>
       <c r="B15" s="63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="24" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2158,7 +2197,7 @@
         <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M15" s="24" t="s">
         <v>50</v>
@@ -2176,7 +2215,7 @@
     <row r="16" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="58"/>
       <c r="B16" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
@@ -2186,7 +2225,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>50</v>
@@ -2207,7 +2246,7 @@
         <v>50</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>50</v>
@@ -2219,28 +2258,60 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="58"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B17" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="58"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -2255,41 +2326,93 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="58"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="59"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="B20" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C21" s="4"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFD0AF-174E-4CED-8972-8E8CB7622426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72607532-E866-48FF-AF02-E7A76803D0C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -597,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1069,11 +1069,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1238,12 +1247,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,6 +1262,18 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1577,10 +1592,10 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1608,7 +1623,7 @@
       <c r="A1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="49" t="s">
@@ -1636,7 +1651,7 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="56"/>
-      <c r="B2" s="61"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="50"/>
       <c r="D2" s="53"/>
       <c r="E2" s="33" t="s">
@@ -1676,7 +1691,7 @@
     </row>
     <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="57"/>
-      <c r="B3" s="62"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="51"/>
       <c r="D3" s="54"/>
       <c r="E3" s="34"/>
@@ -1743,7 +1758,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="64" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1785,7 +1800,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="58"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1844,7 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="58"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1888,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="58"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
@@ -1919,7 +1934,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="58"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
@@ -1959,7 +1974,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="58"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
@@ -1997,7 +2012,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="63.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="58"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
@@ -2039,7 +2054,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="58"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="23" t="s">
         <v>75</v>
       </c>
@@ -2085,7 +2100,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="58"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="23" t="s">
         <v>80</v>
       </c>
@@ -2127,7 +2142,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="58"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="23" t="s">
         <v>88</v>
       </c>
@@ -2170,9 +2185,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="64" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="58"/>
-      <c r="B15" s="63" t="s">
+    <row r="15" spans="1:16" s="62" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="65"/>
+      <c r="B15" s="61" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="7"/>
@@ -2213,7 +2228,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="58"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="23" t="s">
         <v>89</v>
       </c>
@@ -2259,7 +2274,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="58"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="23" t="s">
         <v>93</v>
       </c>
@@ -2305,7 +2320,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="58"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="23" t="s">
         <v>95</v>
       </c>
@@ -2327,7 +2342,7 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="58"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="23" t="s">
         <v>97</v>
       </c>
@@ -2370,8 +2385,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="59"/>
+    <row r="20" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="65"/>
       <c r="B20" s="23" t="s">
         <v>99</v>
       </c>
@@ -2379,7 +2394,7 @@
       <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="63" t="s">
         <v>100</v>
       </c>
       <c r="F20" s="7"/>
@@ -2414,85 +2429,95 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+    <row r="21" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C26" s="4"/>
@@ -2691,8 +2716,8 @@
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A5:A20"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A5:A25"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Desktop\Reyar\CFA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72607532-E866-48FF-AF02-E7A76803D0C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBB4233-06B2-42B5-A205-CDFBD38B8F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="122">
   <si>
     <t>Basic Information</t>
   </si>
@@ -464,12 +464,6 @@
     <t>the two factor model had a good fit</t>
   </si>
   <si>
-    <t>Case13_21v_1f</t>
-  </si>
-  <si>
-    <t>The upload process works, but the generation of the report doesn't work, even if try different variables and latent variables. The case runs locally in R.</t>
-  </si>
-  <si>
     <t>Case14_11v_3f</t>
   </si>
   <si>
@@ -492,6 +486,63 @@
   </si>
   <si>
     <t>first indicator as marker variable (factor loading of first indicator=1)</t>
+  </si>
+  <si>
+    <t>number of free parameters different (in source: 6, in report: 9), different standardized values</t>
+  </si>
+  <si>
+    <t>Case13_21v_1f Model 1</t>
+  </si>
+  <si>
+    <t>Case13_21v_1f Model 2</t>
+  </si>
+  <si>
+    <t>"Something went wrong. …"</t>
+  </si>
+  <si>
+    <t>Case16_6v_1f</t>
+  </si>
+  <si>
+    <t>ML estimation, standardization based on correlation matrix</t>
+  </si>
+  <si>
+    <t>We see that much of the variation in BIO, GEO, and CHEM is explained by the latent factor. But only 3-7% of variation in ALG, CALC, and STAT is attributable to the factor – that is, we have low communality estimates and high uniquenesses. This suggests a poor factor solution.</t>
+  </si>
+  <si>
+    <t>Case17_4v_1f</t>
+  </si>
+  <si>
+    <t>ML Estimation</t>
+  </si>
+  <si>
+    <t>Case18_3v_3f Model 2</t>
+  </si>
+  <si>
+    <t>stdyx standardization</t>
+  </si>
+  <si>
+    <t>All six factor loadings are statistically significant (ps &lt; .001) and sufficiently large</t>
+  </si>
+  <si>
+    <t>Case19_6v_2f</t>
+  </si>
+  <si>
+    <t>Case20_8v_2f</t>
+  </si>
+  <si>
+    <t>Intercepts all set to zero, leads to different values</t>
+  </si>
+  <si>
+    <t>same range (for standardized and unstandardized)</t>
+  </si>
+  <si>
+    <t>"The suloution provides an acceptable fit to the data."</t>
+  </si>
+  <si>
+    <t>ML-Estimation</t>
+  </si>
+  <si>
+    <t>Case21_9v_1f female (same for male)</t>
   </si>
 </sst>
 </file>
@@ -1148,114 +1199,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1263,17 +1206,125 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1589,13 +1640,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1620,96 +1671,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="56"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="33" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="62" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="57"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="44"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16" s="12" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="21"/>
@@ -1758,7 +1809,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1800,7 +1851,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="65"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1844,7 +1895,7 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="65"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
@@ -1888,7 +1939,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="65"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
@@ -1899,7 +1950,7 @@
         <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>57</v>
@@ -1925,16 +1976,16 @@
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="26"/>
+      <c r="O8" s="45"/>
       <c r="P8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="65"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
@@ -1943,7 +1994,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
@@ -1974,7 +2025,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="65"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2063,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="63.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="65"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
@@ -2054,7 +2105,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="65"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="23" t="s">
         <v>75</v>
       </c>
@@ -2100,7 +2151,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="65"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="23" t="s">
         <v>80</v>
       </c>
@@ -2142,7 +2193,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="65"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="23" t="s">
         <v>88</v>
       </c>
@@ -2185,9 +2236,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="62" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="65"/>
-      <c r="B15" s="61" t="s">
+    <row r="15" spans="1:16" s="26" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="43"/>
+      <c r="B15" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="7"/>
@@ -2228,7 +2279,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="65"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="23" t="s">
         <v>89</v>
       </c>
@@ -2274,7 +2325,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="65"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="23" t="s">
         <v>93</v>
       </c>
@@ -2319,335 +2370,515 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="65"/>
+    <row r="18" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="43"/>
       <c r="B18" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="65"/>
+    <row r="19" spans="1:16" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="43"/>
       <c r="B19" s="23" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="65"/>
+      <c r="E19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="43"/>
       <c r="B20" s="23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="43"/>
+      <c r="B21" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-    </row>
-    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-    </row>
-    <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-    </row>
-    <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="H21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="43"/>
+      <c r="B22" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="43"/>
+      <c r="B23" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="43"/>
+      <c r="B24" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="43"/>
+      <c r="B25" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="43"/>
+      <c r="B26" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="52.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="43"/>
+      <c r="B27" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="43"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="43"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="A32" s="43"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33" s="43"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2663,7 +2894,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2679,7 +2910,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2695,29 +2926,40 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A5:A25"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
@@ -2732,6 +2974,11 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A5:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBB4233-06B2-42B5-A205-CDFBD38B8F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C73CE-FF5F-481B-99E9-170FE4D62FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -542,7 +542,7 @@
     <t>ML-Estimation</t>
   </si>
   <si>
-    <t>Case21_9v_1f female (same for male)</t>
+    <t>Case21_9v_1f female (same results for male)</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1646,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C73CE-FF5F-481B-99E9-170FE4D62FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8B896D-D542-4C44-AF89-68E0DCC64623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="123">
   <si>
     <t>Basic Information</t>
   </si>
@@ -544,12 +544,15 @@
   <si>
     <t>Case21_9v_1f female (same results for male)</t>
   </si>
+  <si>
+    <t>Errors in PDF 07/01/2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +584,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1133,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1212,6 +1223,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,76 +1337,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,129 +1660,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="11.3984375" style="2"/>
+    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="52" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="38"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="53"/>
+      <c r="Q2" s="69"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="63"/>
-    </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="69"/>
+    </row>
+    <row r="4" spans="1:17" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
@@ -1807,9 +1833,10 @@
       <c r="P4" s="20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="42" t="s">
+      <c r="Q4" s="70"/>
+    </row>
+    <row r="5" spans="1:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1850,8 +1877,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="67"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1894,8 +1921,8 @@
       </c>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:17" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
       <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
@@ -1938,8 +1965,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:17" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
@@ -1976,16 +2003,16 @@
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="45"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
@@ -2024,8 +2051,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67"/>
       <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
@@ -2062,8 +2089,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="63.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:17" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="67"/>
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
@@ -2104,8 +2131,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="67"/>
       <c r="B12" s="23" t="s">
         <v>75</v>
       </c>
@@ -2150,8 +2177,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43"/>
+    <row r="13" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="67"/>
       <c r="B13" s="23" t="s">
         <v>80</v>
       </c>
@@ -2192,8 +2219,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43"/>
+    <row r="14" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="67"/>
       <c r="B14" s="23" t="s">
         <v>88</v>
       </c>
@@ -2236,8 +2263,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="26" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="43"/>
+    <row r="15" spans="1:17" s="26" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="67"/>
       <c r="B15" s="25" t="s">
         <v>91</v>
       </c>
@@ -2278,8 +2305,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="43"/>
+    <row r="16" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="67"/>
       <c r="B16" s="23" t="s">
         <v>89</v>
       </c>
@@ -2324,8 +2351,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
+    <row r="17" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="67"/>
       <c r="B17" s="23" t="s">
         <v>93</v>
       </c>
@@ -2370,8 +2397,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
+    <row r="18" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67"/>
       <c r="B18" s="23" t="s">
         <v>104</v>
       </c>
@@ -2392,8 +2419,8 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="43"/>
+    <row r="19" spans="1:16" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="67"/>
       <c r="B19" s="23" t="s">
         <v>105</v>
       </c>
@@ -2416,8 +2443,8 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="43"/>
+    <row r="20" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="67"/>
       <c r="B20" s="23" t="s">
         <v>95</v>
       </c>
@@ -2460,8 +2487,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="43"/>
+    <row r="21" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67"/>
       <c r="B21" s="23" t="s">
         <v>97</v>
       </c>
@@ -2504,8 +2531,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
+    <row r="22" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67"/>
       <c r="B22" s="28" t="s">
         <v>107</v>
       </c>
@@ -2548,8 +2575,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
+    <row r="23" spans="1:16" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="67"/>
       <c r="B23" s="28" t="s">
         <v>110</v>
       </c>
@@ -2590,8 +2617,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
+    <row r="24" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="67"/>
       <c r="B24" s="28" t="s">
         <v>112</v>
       </c>
@@ -2634,8 +2661,8 @@
       </c>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
+    <row r="25" spans="1:16" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="67"/>
       <c r="B25" s="28" t="s">
         <v>115</v>
       </c>
@@ -2678,8 +2705,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="43"/>
+    <row r="26" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="67"/>
       <c r="B26" s="28" t="s">
         <v>116</v>
       </c>
@@ -2724,8 +2751,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="52.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="43"/>
+    <row r="27" spans="1:16" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="67"/>
       <c r="B27" s="28" t="s">
         <v>121</v>
       </c>
@@ -2770,8 +2797,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="43"/>
+    <row r="28" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="67"/>
       <c r="B28" s="28"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2788,8 +2815,8 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="43"/>
+    <row r="29" spans="1:16" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="67"/>
       <c r="B29" s="28"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2806,8 +2833,8 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="43"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="67"/>
       <c r="B30" s="28"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2824,8 +2851,8 @@
       <c r="O30" s="6"/>
       <c r="P30" s="29"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="43"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="67"/>
       <c r="B31" s="28"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2842,8 +2869,8 @@
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="43"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="67"/>
       <c r="B32" s="28"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2860,8 +2887,8 @@
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A33" s="43"/>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="67"/>
       <c r="B33" s="28"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2878,7 +2905,7 @@
       <c r="O33" s="29"/>
       <c r="P33" s="29"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2894,7 +2921,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2910,7 +2937,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2926,7 +2953,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2942,7 +2969,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2959,7 +2986,13 @@
       <c r="P38" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A5:A33"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
@@ -2974,11 +3007,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A5:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\Statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8B896D-D542-4C44-AF89-68E0DCC64623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010C078F-65B1-4C9F-A7A4-857169A1496B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -1223,6 +1223,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1293,57 +1344,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1663,10 +1663,10 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q33" sqref="Q33"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1692,101 +1692,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="68" t="s">
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="38" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="69"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="69"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="31"/>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
@@ -1833,10 +1833,10 @@
       <c r="P4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="70"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1878,7 +1878,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:17" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +1966,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
@@ -2003,16 +2003,16 @@
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="31"/>
+      <c r="O8" s="48"/>
       <c r="P8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
@@ -2052,7 +2052,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="23" t="s">
         <v>75</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="23" t="s">
         <v>80</v>
       </c>
@@ -2220,7 +2220,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="23" t="s">
         <v>88</v>
       </c>
@@ -2264,7 +2264,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="26" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="25" t="s">
         <v>91</v>
       </c>
@@ -2306,7 +2306,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="23" t="s">
         <v>89</v>
       </c>
@@ -2352,7 +2352,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="23" t="s">
         <v>93</v>
       </c>
@@ -2398,7 +2398,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="23" t="s">
         <v>104</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="23" t="s">
         <v>105</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="23" t="s">
         <v>95</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="23" t="s">
         <v>97</v>
       </c>
@@ -2532,7 +2532,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="28" t="s">
         <v>107</v>
       </c>
@@ -2576,7 +2576,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="28" t="s">
         <v>110</v>
       </c>
@@ -2618,7 +2618,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="28" t="s">
         <v>112</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="28" t="s">
         <v>115</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="28" t="s">
         <v>116</v>
       </c>
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>121</v>
       </c>
@@ -2798,7 +2798,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="28"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2816,7 +2816,7 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="28"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2834,7 +2834,7 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="28"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2852,7 +2852,7 @@
       <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="28"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2870,7 +2870,7 @@
       <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="28"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2888,7 +2888,7 @@
       <c r="P32" s="29"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="28"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2987,11 +2987,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
     <mergeCell ref="A5:A33"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
@@ -3007,6 +3002,11 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\Statsomat\Tests\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010C078F-65B1-4C9F-A7A4-857169A1496B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4AB68-5BA1-4625-998E-47787B07A2E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="130">
   <si>
     <t>Basic Information</t>
   </si>
@@ -497,9 +497,6 @@
     <t>Case13_21v_1f Model 2</t>
   </si>
   <si>
-    <t>"Something went wrong. …"</t>
-  </si>
-  <si>
     <t>Case16_6v_1f</t>
   </si>
   <si>
@@ -546,6 +543,30 @@
   </si>
   <si>
     <t>Errors in PDF 07/01/2021</t>
+  </si>
+  <si>
+    <t>Case22_6v_3f</t>
+  </si>
+  <si>
+    <t>Case23_12v_6f</t>
+  </si>
+  <si>
+    <t>Error: Errors in the cfa execution. Please reconsider the data or the model.</t>
+  </si>
+  <si>
+    <t>"Problem Solving and Cognitive Restructuring  will be more strongly correlated with each other than with Express Emotions and Social  Support, and Express Emotions and Social Support will be more highly interrelated than  either factor is with Problem Solving and Cognitive Restructuring."</t>
+  </si>
+  <si>
+    <t>The four-factor solution provides a good fit to the data.</t>
+  </si>
+  <si>
+    <t>all 12 items are reasonable indicators of  their respective factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completeley standardized, table  "Rows With Suspected Outliers" is too wide to read it </t>
+  </si>
+  <si>
+    <t>Error in lapply(X = X, FUN = FUN, ...): object 'df_cont' not found Error in which(complete_rate &lt; 0.95): object 'complete_rate' not found Error in which(complete_rate &lt; 1 &amp; complete_rate &gt; 0.95): object 'complete_rate' not found, Error: Errors in the cfa execution. Please reconsider the data or the model</t>
   </si>
 </sst>
 </file>
@@ -659,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -696,21 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -820,13 +826,296 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -837,7 +1126,16 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -846,305 +1144,31 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1172,36 +1196,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1220,131 +1241,173 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,134 +1725,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.265625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.59765625" style="2" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
     <col min="17" max="17" width="26" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="2"/>
+    <col min="18" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="55" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="58"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="57" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="31"/>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="56"/>
+      <c r="Q2" s="73"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="64"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="66"/>
-      <c r="Q3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="Q3" s="73"/>
+    </row>
+    <row r="4" spans="1:17" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
         <v>7</v>
@@ -1830,16 +1893,16 @@
       <c r="O4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="32"/>
-    </row>
-    <row r="5" spans="1:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="Q4" s="73"/>
+    </row>
+    <row r="5" spans="1:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="14"/>
@@ -1873,13 +1936,14 @@
       <c r="O5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="68" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="23" t="s">
+      <c r="Q5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="29"/>
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
@@ -1919,11 +1983,12 @@
       <c r="O6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="23" t="s">
+      <c r="P6" s="69"/>
+      <c r="Q6" s="74"/>
+    </row>
+    <row r="7" spans="1:17" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="29"/>
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="7"/>
@@ -1949,7 +2014,7 @@
       <c r="K7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>50</v>
       </c>
       <c r="M7" s="7" t="s">
@@ -1961,13 +2026,14 @@
       <c r="O7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="69" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="23" t="s">
+      <c r="Q7" s="74"/>
+    </row>
+    <row r="8" spans="1:17" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="29"/>
+      <c r="B8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2003,17 +2069,18 @@
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="48"/>
-      <c r="P8" s="8" t="s">
+      <c r="O8" s="31"/>
+      <c r="P8" s="69" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="23" t="s">
+      <c r="Q8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="29"/>
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7"/>
@@ -2047,13 +2114,14 @@
       <c r="O9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="23" t="s">
+      <c r="Q9" s="75"/>
+    </row>
+    <row r="10" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="29"/>
+      <c r="B10" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="7"/>
@@ -2085,13 +2153,14 @@
       <c r="O10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="23" t="s">
+      <c r="P10" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="75"/>
+    </row>
+    <row r="11" spans="1:17" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="29"/>
+      <c r="B11" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="7"/>
@@ -2127,13 +2196,14 @@
       <c r="O11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="69" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="23" t="s">
+      <c r="Q11" s="75"/>
+    </row>
+    <row r="12" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="29"/>
+      <c r="B12" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="7"/>
@@ -2173,13 +2243,14 @@
       <c r="O12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="69" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="23" t="s">
+      <c r="Q12" s="75"/>
+    </row>
+    <row r="13" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="29"/>
+      <c r="B13" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="7"/>
@@ -2215,13 +2286,14 @@
       <c r="O13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="23" t="s">
+      <c r="P13" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="75"/>
+    </row>
+    <row r="14" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29"/>
+      <c r="B14" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="7"/>
@@ -2259,55 +2331,57 @@
       <c r="O14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="26" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="25" t="s">
+      <c r="P14" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="76"/>
+    </row>
+    <row r="15" spans="1:17" s="25" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="29"/>
+      <c r="B15" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="24" t="s">
+      <c r="H15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="23" t="s">
         <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M15" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="23" t="s">
+      <c r="M15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="76"/>
+    </row>
+    <row r="16" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="29"/>
+      <c r="B16" s="22" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="7"/>
@@ -2347,13 +2421,14 @@
       <c r="O16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="23" t="s">
+      <c r="P16" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="76"/>
+    </row>
+    <row r="17" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="22" t="s">
         <v>93</v>
       </c>
       <c r="C17" s="7"/>
@@ -2393,35 +2468,37 @@
       <c r="O17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="23" t="s">
+      <c r="P17" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="76"/>
+    </row>
+    <row r="18" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="29"/>
+      <c r="B18" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="C18" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="23" t="s">
+      <c r="P18" s="70"/>
+      <c r="Q18" s="76"/>
+    </row>
+    <row r="19" spans="1:17" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="29"/>
+      <c r="B19" s="22" t="s">
         <v>105</v>
       </c>
       <c r="C19" s="7"/>
@@ -2433,19 +2510,20 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="23" t="s">
+      <c r="P19" s="70"/>
+      <c r="Q19" s="76"/>
+    </row>
+    <row r="20" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="29"/>
+      <c r="B20" s="22" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="7"/>
@@ -2483,20 +2561,21 @@
       <c r="O20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="23" t="s">
+      <c r="P20" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="74"/>
+    </row>
+    <row r="21" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="29"/>
+      <c r="B21" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>98</v>
       </c>
       <c r="F21" s="7"/>
@@ -2527,21 +2606,22 @@
       <c r="O21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="28" t="s">
-        <v>107</v>
+      <c r="P21" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="76"/>
+    </row>
+    <row r="22" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="29"/>
+      <c r="B22" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6" t="s">
@@ -2571,14 +2651,15 @@
       <c r="O22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q22" s="74"/>
+    </row>
+    <row r="23" spans="1:17" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="29"/>
+      <c r="B23" s="27" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="28" t="s">
-        <v>110</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
@@ -2613,21 +2694,22 @@
       <c r="O23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="28" t="s">
-        <v>112</v>
+      <c r="P23" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="74"/>
+    </row>
+    <row r="24" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="29"/>
+      <c r="B24" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>50</v>
@@ -2659,19 +2741,20 @@
       <c r="O24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="28" t="s">
-        <v>115</v>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="74"/>
+    </row>
+    <row r="25" spans="1:17" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="29"/>
+      <c r="B25" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="6" t="s">
@@ -2701,21 +2784,22 @@
       <c r="O25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="28" t="s">
-        <v>116</v>
+      <c r="P25" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="74"/>
+    </row>
+    <row r="26" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="29"/>
+      <c r="B26" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>52</v>
@@ -2747,60 +2831,66 @@
       <c r="O26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="28" t="s">
-        <v>121</v>
+      <c r="P26" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" s="74"/>
+    </row>
+    <row r="27" spans="1:17" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="29"/>
+      <c r="B27" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="N27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="6"/>
+      <c r="P27" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" s="74"/>
+    </row>
+    <row r="28" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="29"/>
+      <c r="B28" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>124</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2813,99 +2903,133 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="29"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="70"/>
+      <c r="Q28" s="77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="29"/>
+      <c r="B29" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="80"/>
+      <c r="H29" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="P29" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="84"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="29"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="78"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="29"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="78"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="29"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="78"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="29"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="78"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2921,7 +3045,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2937,7 +3061,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2953,7 +3077,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2969,7 +3093,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2987,6 +3111,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="A5:A33"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
@@ -3002,11 +3131,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4AB68-5BA1-4625-998E-47787B07A2E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09337DA-4828-4E3D-9435-8B14094D2B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -1726,10 +1726,10 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -2199,7 +2199,7 @@
       <c r="P11" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="75"/>
+      <c r="Q11" s="74"/>
     </row>
     <row r="12" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29"/>
@@ -2246,7 +2246,7 @@
       <c r="P12" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="75"/>
+      <c r="Q12" s="74"/>
     </row>
     <row r="13" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29"/>
@@ -2289,7 +2289,7 @@
       <c r="P13" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="75"/>
+      <c r="Q13" s="76"/>
     </row>
     <row r="14" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\Statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09337DA-4828-4E3D-9435-8B14094D2B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA44C59-2E5F-4208-982C-6E0E6722F414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="131">
   <si>
     <t>Basic Information</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>Error in lapply(X = X, FUN = FUN, ...): object 'df_cont' not found Error in which(complete_rate &lt; 0.95): object 'complete_rate' not found Error in which(complete_rate &lt; 1 &amp; complete_rate &gt; 0.95): object 'complete_rate' not found, Error: Errors in the cfa execution. Please reconsider the data or the model</t>
+  </si>
+  <si>
+    <t>Errors in PDF 08/01/2021</t>
   </si>
 </sst>
 </file>
@@ -1241,123 +1244,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1375,9 +1264,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1408,6 +1294,123 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1723,135 +1726,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
     <col min="17" max="17" width="26" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="11.3984375" style="2"/>
+    <col min="18" max="18" width="32.85546875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="73" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="49" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="58"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="37" t="s">
+      <c r="R1" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="87"/>
+      <c r="H2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="73"/>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="59"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="38"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="73"/>
-    </row>
-    <row r="4" spans="1:17" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+    </row>
+    <row r="4" spans="1:18" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
@@ -1893,13 +1902,14 @@
       <c r="O4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="73"/>
-    </row>
-    <row r="5" spans="1:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="62" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -1936,13 +1946,13 @@
       <c r="O5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="74"/>
-    </row>
-    <row r="6" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
+      <c r="Q5" s="35"/>
+    </row>
+    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="63"/>
       <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
@@ -1983,11 +1993,11 @@
       <c r="O6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="74"/>
-    </row>
-    <row r="7" spans="1:17" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="29"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="35"/>
+    </row>
+    <row r="7" spans="1:18" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="63"/>
       <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
@@ -2026,13 +2036,13 @@
       <c r="O7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="69" t="s">
+      <c r="P7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="74"/>
-    </row>
-    <row r="8" spans="1:17" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="63"/>
       <c r="B8" s="22" t="s">
         <v>14</v>
       </c>
@@ -2069,17 +2079,17 @@
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="69" t="s">
+      <c r="O8" s="65"/>
+      <c r="P8" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="74"/>
-    </row>
-    <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
+      <c r="Q8" s="35"/>
+    </row>
+    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="63"/>
       <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
@@ -2114,13 +2124,13 @@
       <c r="O9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="69" t="s">
+      <c r="P9" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="75"/>
-    </row>
-    <row r="10" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
+      <c r="Q9" s="36"/>
+    </row>
+    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="63"/>
       <c r="B10" s="22" t="s">
         <v>16</v>
       </c>
@@ -2153,13 +2163,13 @@
       <c r="O10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="75"/>
-    </row>
-    <row r="11" spans="1:17" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
+      <c r="P10" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="36"/>
+    </row>
+    <row r="11" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="63"/>
       <c r="B11" s="22" t="s">
         <v>74</v>
       </c>
@@ -2196,13 +2206,13 @@
       <c r="O11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="69" t="s">
+      <c r="P11" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="74"/>
-    </row>
-    <row r="12" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29"/>
+      <c r="Q11" s="35"/>
+    </row>
+    <row r="12" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="63"/>
       <c r="B12" s="22" t="s">
         <v>75</v>
       </c>
@@ -2243,13 +2253,13 @@
       <c r="O12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="69" t="s">
+      <c r="P12" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="74"/>
-    </row>
-    <row r="13" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
+      <c r="Q12" s="35"/>
+    </row>
+    <row r="13" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="63"/>
       <c r="B13" s="22" t="s">
         <v>80</v>
       </c>
@@ -2286,13 +2296,13 @@
       <c r="O13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="76"/>
-    </row>
-    <row r="14" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
+      <c r="P13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="63"/>
       <c r="B14" s="22" t="s">
         <v>88</v>
       </c>
@@ -2331,13 +2341,13 @@
       <c r="O14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="76"/>
-    </row>
-    <row r="15" spans="1:17" s="25" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29"/>
+      <c r="P14" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" s="25" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="63"/>
       <c r="B15" s="24" t="s">
         <v>91</v>
       </c>
@@ -2374,13 +2384,13 @@
       <c r="O15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="76"/>
-    </row>
-    <row r="16" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
+      <c r="P15" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="37"/>
+    </row>
+    <row r="16" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="63"/>
       <c r="B16" s="22" t="s">
         <v>89</v>
       </c>
@@ -2421,13 +2431,13 @@
       <c r="O16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="76"/>
-    </row>
-    <row r="17" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29"/>
+      <c r="P16" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="37"/>
+    </row>
+    <row r="17" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="63"/>
       <c r="B17" s="22" t="s">
         <v>93</v>
       </c>
@@ -2468,13 +2478,13 @@
       <c r="O17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="76"/>
-    </row>
-    <row r="18" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="29"/>
+      <c r="P17" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="37"/>
+    </row>
+    <row r="18" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="63"/>
       <c r="B18" s="22" t="s">
         <v>104</v>
       </c>
@@ -2493,11 +2503,11 @@
       <c r="M18" s="23"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="76"/>
-    </row>
-    <row r="19" spans="1:17" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="37"/>
+    </row>
+    <row r="19" spans="1:17" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="63"/>
       <c r="B19" s="22" t="s">
         <v>105</v>
       </c>
@@ -2518,11 +2528,11 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="76"/>
-    </row>
-    <row r="20" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="37"/>
+    </row>
+    <row r="20" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="63"/>
       <c r="B20" s="22" t="s">
         <v>95</v>
       </c>
@@ -2561,13 +2571,13 @@
       <c r="O20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="74"/>
-    </row>
-    <row r="21" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="29"/>
+      <c r="P20" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="35"/>
+    </row>
+    <row r="21" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
       <c r="B21" s="22" t="s">
         <v>97</v>
       </c>
@@ -2606,13 +2616,13 @@
       <c r="O21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="76"/>
-    </row>
-    <row r="22" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="29"/>
+      <c r="P21" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
       <c r="B22" s="27" t="s">
         <v>106</v>
       </c>
@@ -2651,13 +2661,13 @@
       <c r="O22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="72" t="s">
+      <c r="P22" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="Q22" s="74"/>
-    </row>
-    <row r="23" spans="1:17" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="29"/>
+      <c r="Q22" s="35"/>
+    </row>
+    <row r="23" spans="1:17" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="63"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -2694,13 +2704,13 @@
       <c r="O23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="74"/>
-    </row>
-    <row r="24" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="29"/>
+      <c r="P23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="35"/>
+    </row>
+    <row r="24" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="63"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -2741,11 +2751,11 @@
       <c r="O24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="74"/>
-    </row>
-    <row r="25" spans="1:17" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="29"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="35"/>
+    </row>
+    <row r="25" spans="1:17" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
       <c r="B25" s="27" t="s">
         <v>114</v>
       </c>
@@ -2784,13 +2794,13 @@
       <c r="O25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P25" s="72" t="s">
+      <c r="P25" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="Q25" s="74"/>
-    </row>
-    <row r="26" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="29"/>
+      <c r="Q25" s="35"/>
+    </row>
+    <row r="26" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63"/>
       <c r="B26" s="27" t="s">
         <v>115</v>
       </c>
@@ -2831,13 +2841,13 @@
       <c r="O26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q26" s="74"/>
-    </row>
-    <row r="27" spans="1:17" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="29"/>
+      <c r="P26" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" s="35"/>
+    </row>
+    <row r="27" spans="1:17" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="63"/>
       <c r="B27" s="27" t="s">
         <v>120</v>
       </c>
@@ -2878,17 +2888,17 @@
       <c r="O27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="74"/>
-    </row>
-    <row r="28" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="29"/>
+      <c r="P27" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" s="35"/>
+    </row>
+    <row r="28" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
       <c r="B28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="28" t="s">
         <v>124</v>
       </c>
       <c r="D28" s="6"/>
@@ -2903,133 +2913,133 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="77" t="s">
+      <c r="P28" s="32"/>
+      <c r="Q28" s="38" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="29"/>
-      <c r="B29" s="79" t="s">
+    <row r="29" spans="1:17" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="63"/>
+      <c r="B29" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="82" t="s">
+      <c r="C29" s="41"/>
+      <c r="D29" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="80" t="s">
+      <c r="F29" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="80"/>
-      <c r="H29" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" s="80" t="s">
+      <c r="G29" s="41"/>
+      <c r="H29" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="N29" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="80" t="s">
+      <c r="N29" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="P29" s="83" t="s">
+      <c r="P29" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="Q29" s="84"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="29"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="78"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="29"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="78"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="29"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="78"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="29"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="78"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q29" s="45"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="63"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="39"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="63"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="39"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="63"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="39"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="63"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="39"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3045,7 +3055,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3061,7 +3071,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3077,7 +3087,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3093,7 +3103,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3110,12 +3120,8 @@
       <c r="P38" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
+  <mergeCells count="21">
+    <mergeCell ref="R1:R4"/>
     <mergeCell ref="A5:A33"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
@@ -3131,6 +3137,11 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\Statsomat\Tests\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA44C59-2E5F-4208-982C-6E0E6722F414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1236DE-AE32-4450-B12D-620DB84C2B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="134">
   <si>
     <t>Basic Information</t>
   </si>
@@ -458,12 +458,6 @@
     <t>Notice that compared to the uncorrelated two-factor solution, the chi-square and RMSEA are both lower. The test of RMSEA is not significant which means that we do not reject the null hypothesis that the RMSEA is less than or equal to 0.05. Additionally the CFI and TLI are both higher and pass the 0.95 threshold. This is even better fitting than the one-factor solution</t>
   </si>
   <si>
-    <t>Case12_6v_2f</t>
-  </si>
-  <si>
-    <t>the two factor model had a good fit</t>
-  </si>
-  <si>
     <t>Case14_11v_3f</t>
   </si>
   <si>
@@ -570,6 +564,21 @@
   </si>
   <si>
     <t>Errors in PDF 08/01/2021</t>
+  </si>
+  <si>
+    <t>for case_1 missing: no information except basic information; for case 1 outliers: "Error: Improper CFA solution. This can be due to: Outliers, small sample size, non-normality, multicollinearity, model misspecification."</t>
+  </si>
+  <si>
+    <t>no information except basic information</t>
+  </si>
+  <si>
+    <t>Error: Improper CFA solution. This can be due to: Outliers, small sample size, non-normality, multicollinearity, model misspecification.</t>
+  </si>
+  <si>
+    <t>For model 2: Error: Improper CFA solution. This can be due to: Outliers, small sample size, non-normality, multicollinearity, model misspecification.</t>
+  </si>
+  <si>
+    <t>Error: Improper CFA solution. This can be due to: Outliers, small sample size, non-normality, multicollinearity, model misspecification</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1199,9 +1208,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1224,7 +1230,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1244,9 +1249,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1265,11 +1267,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1285,7 +1282,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1295,16 +1291,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,83 +1360,74 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,234 +1743,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.265625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.59765625" style="5" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26" style="2" customWidth="1"/>
-    <col min="18" max="18" width="32.85546875" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26" style="5" customWidth="1"/>
+    <col min="18" max="18" width="32.86328125" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="72" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="58"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="74" t="s">
+      <c r="G2" s="76"/>
+      <c r="H2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="11" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-    </row>
-    <row r="4" spans="1:18" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+    </row>
+    <row r="4" spans="1:18" s="11" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="82"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-    </row>
-    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+    </row>
+    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="35"/>
-    </row>
-    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="22" t="s">
+      <c r="Q5" s="64"/>
+      <c r="R5" s="69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="84"/>
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
@@ -1993,12 +2013,15 @@
       <c r="O6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="35"/>
-    </row>
-    <row r="7" spans="1:18" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="22" t="s">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="84"/>
+      <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="7"/>
@@ -2024,7 +2047,7 @@
       <c r="K7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="21" t="s">
         <v>50</v>
       </c>
       <c r="M7" s="7" t="s">
@@ -2036,14 +2059,15 @@
       <c r="O7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="35"/>
-    </row>
-    <row r="8" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="22" t="s">
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+    </row>
+    <row r="8" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="84"/>
+      <c r="B8" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2053,7 +2077,7 @@
         <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>57</v>
@@ -2079,18 +2103,21 @@
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="31" t="s">
+      <c r="O8" s="42"/>
+      <c r="P8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="35"/>
-    </row>
-    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="22" t="s">
+      <c r="Q8" s="64"/>
+      <c r="R8" s="66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="84"/>
+      <c r="B9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7"/>
@@ -2098,7 +2125,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
@@ -2124,14 +2151,15 @@
       <c r="O9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="36"/>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="22" t="s">
+      <c r="Q9" s="65"/>
+      <c r="R9" s="64"/>
+    </row>
+    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="84"/>
+      <c r="B10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="7"/>
@@ -2163,14 +2191,17 @@
       <c r="O10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="36"/>
-    </row>
-    <row r="11" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="22" t="s">
+      <c r="P10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="84"/>
+      <c r="B11" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="7"/>
@@ -2206,14 +2237,15 @@
       <c r="O11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="35"/>
-    </row>
-    <row r="12" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="22" t="s">
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+    </row>
+    <row r="12" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="84"/>
+      <c r="B12" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="7"/>
@@ -2253,14 +2285,17 @@
       <c r="O12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="35"/>
-    </row>
-    <row r="13" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="22" t="s">
+      <c r="Q12" s="64"/>
+      <c r="R12" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="84"/>
+      <c r="B13" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="7"/>
@@ -2296,14 +2331,17 @@
       <c r="O13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="37"/>
-    </row>
-    <row r="14" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="22" t="s">
+      <c r="P13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="84"/>
+      <c r="B14" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="7"/>
@@ -2341,57 +2379,63 @@
       <c r="O14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="37"/>
-    </row>
-    <row r="15" spans="1:18" s="25" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="24" t="s">
+      <c r="P14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="23" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="84"/>
+      <c r="B15" s="22" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="D15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="23" t="s">
+      <c r="H15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="21" t="s">
         <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M15" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="37"/>
-    </row>
-    <row r="16" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="22" t="s">
+      <c r="M15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="84"/>
+      <c r="B16" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="7"/>
@@ -2431,212 +2475,226 @@
       <c r="O16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="37"/>
-    </row>
-    <row r="17" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P17" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="37"/>
-    </row>
-    <row r="18" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="P16" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="84"/>
+      <c r="B17" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="84"/>
+      <c r="B18" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="23"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="37"/>
-    </row>
-    <row r="19" spans="1:17" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="22" t="s">
-        <v>105</v>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="84"/>
+      <c r="B19" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="37"/>
-    </row>
-    <row r="20" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="22" t="s">
+      <c r="E19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="84"/>
+      <c r="B20" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="H20" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="35"/>
-    </row>
-    <row r="21" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="22" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="84"/>
+      <c r="B21" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>98</v>
+      <c r="E21" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="9" t="s">
-        <v>100</v>
+      <c r="G21" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>99</v>
+        <v>50</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="37"/>
-    </row>
-    <row r="22" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="31" t="s">
         <v>106</v>
+      </c>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="84"/>
+      <c r="B22" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>107</v>
+      <c r="E22" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="6" t="s">
         <v>50</v>
       </c>
@@ -2661,14 +2719,15 @@
       <c r="O22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q22" s="35"/>
-    </row>
-    <row r="23" spans="1:17" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="27" t="s">
+      <c r="P22" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+    </row>
+    <row r="23" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="84"/>
+      <c r="B23" s="25" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="7"/>
@@ -2676,10 +2735,14 @@
         <v>52</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="H23" s="6" t="s">
         <v>50</v>
       </c>
@@ -2704,71 +2767,75 @@
       <c r="O23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="35"/>
-    </row>
-    <row r="24" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="27" t="s">
-        <v>111</v>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="84"/>
+      <c r="B24" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>58</v>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="35"/>
-    </row>
-    <row r="25" spans="1:17" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="27" t="s">
-        <v>114</v>
+        <v>52</v>
+      </c>
+      <c r="P24" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+    </row>
+    <row r="25" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="84"/>
+      <c r="B25" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6" t="s">
-        <v>52</v>
+        <v>114</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>52</v>
@@ -2794,252 +2861,227 @@
       <c r="O25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P25" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q25" s="35"/>
-    </row>
-    <row r="26" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
-      <c r="B26" s="27" t="s">
-        <v>115</v>
+      <c r="P25" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+    </row>
+    <row r="26" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="84"/>
+      <c r="B26" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="N26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+    </row>
+    <row r="27" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="84"/>
+      <c r="B27" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="84"/>
+      <c r="B28" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q26" s="35"/>
-    </row>
-    <row r="27" spans="1:17" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
-      <c r="B27" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="35"/>
-    </row>
-    <row r="28" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="28" t="s">
+      <c r="G28" s="33"/>
+      <c r="H28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="40" t="s">
+      <c r="N28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="N29" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="P29" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q29" s="45"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="64"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" s="84"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" s="84"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A31" s="84"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32" s="84"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="39"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3055,7 +3097,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3071,7 +3113,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3087,42 +3129,21 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="R1:R4"/>
-    <mergeCell ref="A5:A33"/>
+    <mergeCell ref="A5:A32"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
@@ -3137,11 +3158,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1236DE-AE32-4450-B12D-620DB84C2B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B863ACD-D627-4CFB-BE82-EC5BFB4C3711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="135">
   <si>
     <t>Basic Information</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>Error: Improper CFA solution. This can be due to: Outliers, small sample size, non-normality, multicollinearity, model misspecification</t>
+  </si>
+  <si>
+    <t>Errors in R Code 14/01/2021</t>
   </si>
 </sst>
 </file>
@@ -1294,12 +1297,84 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,12 +1384,24 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,67 +1420,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,33 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,142 +1746,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.265625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.265625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="5" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
     <col min="17" max="17" width="26" style="5" customWidth="1"/>
-    <col min="18" max="18" width="32.86328125" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="11.3984375" style="2"/>
+    <col min="18" max="18" width="32.85546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="43" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="63" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="50" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="58"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="74" t="s">
+      <c r="S1" s="50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="46" t="s">
+      <c r="G2" s="85"/>
+      <c r="H2" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="59"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="79"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-    </row>
-    <row r="4" spans="1:18" s="11" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="82"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+    </row>
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
         <v>7</v>
@@ -1922,11 +1932,12 @@
       <c r="P4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-    </row>
-    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="83" t="s">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+    </row>
+    <row r="5" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1966,13 +1977,13 @@
       <c r="P5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="69" t="s">
+      <c r="Q5" s="41"/>
+      <c r="R5" s="46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="84"/>
+    <row r="6" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
       <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
@@ -2014,13 +2025,13 @@
         <v>19</v>
       </c>
       <c r="P6" s="28"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="70" t="s">
+      <c r="Q6" s="41"/>
+      <c r="R6" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="84"/>
+    <row r="7" spans="1:19" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
       <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
@@ -2062,11 +2073,11 @@
       <c r="P7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-    </row>
-    <row r="8" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="84"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="1:19" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
       <c r="B8" s="20" t="s">
         <v>14</v>
       </c>
@@ -2103,20 +2114,20 @@
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="42"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="66" t="s">
+      <c r="Q8" s="41"/>
+      <c r="R8" s="43" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="84"/>
+    <row r="9" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
       <c r="B9" s="20" t="s">
         <v>15</v>
       </c>
@@ -2154,11 +2165,11 @@
       <c r="P9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="64"/>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="84"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
       <c r="B10" s="20" t="s">
         <v>16</v>
       </c>
@@ -2194,13 +2205,13 @@
       <c r="P10" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="66" t="s">
+      <c r="Q10" s="42"/>
+      <c r="R10" s="43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="84"/>
+    <row r="11" spans="1:19" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
       <c r="B11" s="20" t="s">
         <v>74</v>
       </c>
@@ -2240,11 +2251,11 @@
       <c r="P11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-    </row>
-    <row r="12" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="84"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+    </row>
+    <row r="12" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
       <c r="B12" s="20" t="s">
         <v>75</v>
       </c>
@@ -2288,13 +2299,13 @@
       <c r="P12" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="70" t="s">
+      <c r="Q12" s="41"/>
+      <c r="R12" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="84"/>
+    <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
       <c r="B13" s="20" t="s">
         <v>80</v>
       </c>
@@ -2334,13 +2345,13 @@
       <c r="P13" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="70" t="s">
+      <c r="Q13" s="43"/>
+      <c r="R13" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="84"/>
+    <row r="14" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
       <c r="B14" s="20" t="s">
         <v>88</v>
       </c>
@@ -2382,13 +2393,13 @@
       <c r="P14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="70" t="s">
+      <c r="Q14" s="43"/>
+      <c r="R14" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="84"/>
+    <row r="15" spans="1:19" s="23" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
       <c r="B15" s="22" t="s">
         <v>91</v>
       </c>
@@ -2428,13 +2439,13 @@
       <c r="P15" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="70" t="s">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="84"/>
+    <row r="16" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
       <c r="B16" s="20" t="s">
         <v>89</v>
       </c>
@@ -2478,13 +2489,13 @@
       <c r="P16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="70" t="s">
+      <c r="Q16" s="43"/>
+      <c r="R16" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="84"/>
+    <row r="17" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
       <c r="B17" s="20" t="s">
         <v>102</v>
       </c>
@@ -2504,13 +2515,13 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="29"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="70" t="s">
+      <c r="Q17" s="43"/>
+      <c r="R17" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="84"/>
+    <row r="18" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
       <c r="B18" s="20" t="s">
         <v>103</v>
       </c>
@@ -2532,13 +2543,13 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="29"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="70" t="s">
+      <c r="Q18" s="43"/>
+      <c r="R18" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="84"/>
+    <row r="19" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
       <c r="B19" s="20" t="s">
         <v>93</v>
       </c>
@@ -2580,13 +2591,13 @@
       <c r="P19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="70" t="s">
+      <c r="Q19" s="41"/>
+      <c r="R19" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="84"/>
+    <row r="20" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
       <c r="B20" s="20" t="s">
         <v>95</v>
       </c>
@@ -2628,13 +2639,13 @@
       <c r="P20" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66" t="s">
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="84"/>
+    <row r="21" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
       <c r="B21" s="25" t="s">
         <v>104</v>
       </c>
@@ -2676,13 +2687,13 @@
       <c r="P21" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="70" t="s">
+      <c r="Q21" s="41"/>
+      <c r="R21" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="84"/>
+    <row r="22" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
       <c r="B22" s="25" t="s">
         <v>107</v>
       </c>
@@ -2722,11 +2733,11 @@
       <c r="P22" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-    </row>
-    <row r="23" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="84"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+    </row>
+    <row r="23" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
       <c r="B23" s="25" t="s">
         <v>109</v>
       </c>
@@ -2768,13 +2779,13 @@
         <v>50</v>
       </c>
       <c r="P23" s="31"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="66" t="s">
+      <c r="Q23" s="41"/>
+      <c r="R23" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="84"/>
+    <row r="24" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
       <c r="B24" s="25" t="s">
         <v>112</v>
       </c>
@@ -2816,11 +2827,11 @@
       <c r="P24" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-    </row>
-    <row r="25" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="84"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+    </row>
+    <row r="25" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
       <c r="B25" s="25" t="s">
         <v>113</v>
       </c>
@@ -2864,11 +2875,11 @@
       <c r="P25" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-    </row>
-    <row r="26" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="84"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+    </row>
+    <row r="26" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
       <c r="B26" s="25" t="s">
         <v>118</v>
       </c>
@@ -2912,15 +2923,15 @@
       <c r="P26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-    </row>
-    <row r="27" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="84"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+    </row>
+    <row r="27" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
       <c r="B27" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="49" t="s">
         <v>122</v>
       </c>
       <c r="D27" s="6"/>
@@ -2936,15 +2947,15 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="29"/>
-      <c r="Q27" s="67" t="s">
+      <c r="Q27" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="R27" s="66" t="s">
+      <c r="R27" s="43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="84"/>
+    <row r="28" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
       <c r="B28" s="32" t="s">
         <v>121</v>
       </c>
@@ -2986,11 +2997,11 @@
       <c r="P28" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="64"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A29" s="84"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="41"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="61"/>
       <c r="B29" s="37"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -3008,8 +3019,8 @@
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A30" s="84"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="61"/>
       <c r="B30" s="37"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -3027,8 +3038,8 @@
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A31" s="84"/>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -3046,8 +3057,8 @@
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A32" s="84"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="61"/>
       <c r="B32" s="37"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -3065,7 +3076,7 @@
       <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3081,7 +3092,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3097,7 +3108,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3113,7 +3124,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3129,17 +3140,14 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
+  <mergeCells count="22">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="R1:R4"/>
@@ -3156,6 +3164,10 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="S1:S4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B863ACD-D627-4CFB-BE82-EC5BFB4C3711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA1BD8A-9EE7-4919-806A-25FA739990F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-28920" yWindow="-3780" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="150">
   <si>
     <t>Basic Information</t>
   </si>
@@ -582,6 +582,54 @@
   </si>
   <si>
     <t>Errors in R Code 14/01/2021</t>
+  </si>
+  <si>
+    <t>auto-auto</t>
+  </si>
+  <si>
+    <t>UTF8-auto</t>
+  </si>
+  <si>
+    <t>UTF8-dot</t>
+  </si>
+  <si>
+    <t>UTF8-dot: no r-code</t>
+  </si>
+  <si>
+    <t>auto-auto: no R-Code</t>
+  </si>
+  <si>
+    <t>auto-comma: no rcode, seems like the comma-seperation goes wrong (for comma and dot)</t>
+  </si>
+  <si>
+    <t>auto-dot: no rcode (Error: Improper CFA solution. This can be due to: Outliers, small sample size,
+multicollinearity, model misspecification etc.)</t>
+  </si>
+  <si>
+    <t>auto-auto: no rcode: Error: Improper CFA solution. This can be due to: Outliers, small sample size,
+multicollinearity, model misspecification etc.</t>
+  </si>
+  <si>
+    <t>utf8-dot</t>
+  </si>
+  <si>
+    <t>utf8-auto</t>
+  </si>
+  <si>
+    <t>auto-dot</t>
+  </si>
+  <si>
+    <t>auto-auto: Error: Improper CFA solution. This can be due to: Outliers, small sample size, multicollinearity, model misspecification etc.</t>
+  </si>
+  <si>
+    <t>Higher-order factors were ignored.</t>
+  </si>
+  <si>
+    <t>discriminant validity</t>
+  </si>
+  <si>
+    <t>UTF8-comma:No rcode, Error: Improper CFA solution. This can be due to: Outliers, small sample size,
+multicollinearity, model misspecification etc.</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1324,9 +1372,99 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1336,101 +1474,26 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1746,148 +1809,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.265625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.59765625" style="5" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
     <col min="17" max="17" width="26" style="5" customWidth="1"/>
-    <col min="18" max="18" width="32.85546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="2"/>
+    <col min="18" max="18" width="32.86328125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="18.86328125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="50" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="56" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="70" t="s">
+      <c r="T1" s="88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="51"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="67" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="84" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="85"/>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="71"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="88"/>
+    </row>
+    <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="52"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-    </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="88"/>
+    </row>
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="48"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
@@ -1932,12 +2000,13 @@
       <c r="P4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-    </row>
-    <row r="5" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="88"/>
+    </row>
+    <row r="5" spans="1:20" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1981,9 +2050,13 @@
       <c r="R5" s="46" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="S5" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="T5" s="91"/>
+    </row>
+    <row r="6" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="58"/>
       <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
@@ -2029,9 +2102,15 @@
       <c r="R6" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="S6" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="T6" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="58"/>
       <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
@@ -2075,9 +2154,13 @@
       </c>
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
-    </row>
-    <row r="8" spans="1:19" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="S7" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7" s="91"/>
+    </row>
+    <row r="8" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="58"/>
       <c r="B8" s="20" t="s">
         <v>14</v>
       </c>
@@ -2114,10 +2197,10 @@
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="63"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="28" t="s">
         <v>60</v>
       </c>
@@ -2125,9 +2208,13 @@
       <c r="R8" s="43" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="S8" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="T8" s="91"/>
+    </row>
+    <row r="9" spans="1:20" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="58"/>
       <c r="B9" s="20" t="s">
         <v>15</v>
       </c>
@@ -2167,9 +2254,13 @@
       </c>
       <c r="Q9" s="42"/>
       <c r="R9" s="41"/>
-    </row>
-    <row r="10" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="S9" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="91"/>
+    </row>
+    <row r="10" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="58"/>
       <c r="B10" s="20" t="s">
         <v>16</v>
       </c>
@@ -2209,9 +2300,15 @@
       <c r="R10" s="43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="S10" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="T10" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="58"/>
       <c r="B11" s="20" t="s">
         <v>74</v>
       </c>
@@ -2253,9 +2350,13 @@
       </c>
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
-    </row>
-    <row r="12" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
+      <c r="S11" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="91"/>
+    </row>
+    <row r="12" spans="1:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="58"/>
       <c r="B12" s="20" t="s">
         <v>75</v>
       </c>
@@ -2303,9 +2404,13 @@
       <c r="R12" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="S12" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="89"/>
+    </row>
+    <row r="13" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="58"/>
       <c r="B13" s="20" t="s">
         <v>80</v>
       </c>
@@ -2349,9 +2454,13 @@
       <c r="R13" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="S13" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="T13" s="89"/>
+    </row>
+    <row r="14" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="58"/>
       <c r="B14" s="20" t="s">
         <v>88</v>
       </c>
@@ -2397,9 +2506,11 @@
       <c r="R14" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="23" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="89"/>
+    </row>
+    <row r="15" spans="1:20" s="23" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="58"/>
       <c r="B15" s="22" t="s">
         <v>91</v>
       </c>
@@ -2443,9 +2554,11 @@
       <c r="R15" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="90"/>
+    </row>
+    <row r="16" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="58"/>
       <c r="B16" s="20" t="s">
         <v>89</v>
       </c>
@@ -2493,9 +2606,11 @@
       <c r="R16" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="89"/>
+    </row>
+    <row r="17" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="58"/>
       <c r="B17" s="20" t="s">
         <v>102</v>
       </c>
@@ -2519,9 +2634,11 @@
       <c r="R17" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="89"/>
+    </row>
+    <row r="18" spans="1:20" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="58"/>
       <c r="B18" s="20" t="s">
         <v>103</v>
       </c>
@@ -2547,9 +2664,11 @@
       <c r="R18" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="89"/>
+    </row>
+    <row r="19" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="58"/>
       <c r="B19" s="20" t="s">
         <v>93</v>
       </c>
@@ -2595,9 +2714,11 @@
       <c r="R19" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="89"/>
+    </row>
+    <row r="20" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="58"/>
       <c r="B20" s="20" t="s">
         <v>95</v>
       </c>
@@ -2643,9 +2764,13 @@
       <c r="R20" s="43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
+      <c r="S20" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="T20" s="89"/>
+    </row>
+    <row r="21" spans="1:20" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="58"/>
       <c r="B21" s="25" t="s">
         <v>104</v>
       </c>
@@ -2691,9 +2816,11 @@
       <c r="R21" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="89"/>
+    </row>
+    <row r="22" spans="1:20" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="58"/>
       <c r="B22" s="25" t="s">
         <v>107</v>
       </c>
@@ -2735,9 +2862,15 @@
       </c>
       <c r="Q22" s="41"/>
       <c r="R22" s="41"/>
-    </row>
-    <row r="23" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
+      <c r="S22" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="T22" s="92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="58"/>
       <c r="B23" s="25" t="s">
         <v>109</v>
       </c>
@@ -2783,9 +2916,15 @@
       <c r="R23" s="43" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
+      <c r="S23" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T23" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="58"/>
       <c r="B24" s="25" t="s">
         <v>112</v>
       </c>
@@ -2829,9 +2968,13 @@
       </c>
       <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
-    </row>
-    <row r="25" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
+      <c r="S24" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="T24" s="91"/>
+    </row>
+    <row r="25" spans="1:20" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="58"/>
       <c r="B25" s="25" t="s">
         <v>113</v>
       </c>
@@ -2877,9 +3020,13 @@
       </c>
       <c r="Q25" s="41"/>
       <c r="R25" s="41"/>
-    </row>
-    <row r="26" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
+      <c r="S25" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="T25" s="91"/>
+    </row>
+    <row r="26" spans="1:20" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="58"/>
       <c r="B26" s="25" t="s">
         <v>118</v>
       </c>
@@ -2925,9 +3072,15 @@
       </c>
       <c r="Q26" s="41"/>
       <c r="R26" s="41"/>
-    </row>
-    <row r="27" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
+      <c r="S26" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="T26" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="25" t="s">
         <v>120</v>
       </c>
@@ -2953,9 +3106,15 @@
       <c r="R27" s="43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
+      <c r="S27" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="T27" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="58"/>
       <c r="B28" s="32" t="s">
         <v>121</v>
       </c>
@@ -2999,9 +3158,13 @@
       </c>
       <c r="Q28" s="45"/>
       <c r="R28" s="41"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
+      <c r="S28" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="T28" s="91"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A29" s="58"/>
       <c r="B29" s="37"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -3019,8 +3182,8 @@
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A30" s="58"/>
       <c r="B30" s="37"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -3038,8 +3201,8 @@
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A31" s="58"/>
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -3057,8 +3220,8 @@
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A32" s="58"/>
       <c r="B32" s="37"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -3076,7 +3239,7 @@
       <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3092,7 +3255,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3108,7 +3271,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3124,7 +3287,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3140,14 +3303,21 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.4">
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="T1:T4"/>
+    <mergeCell ref="S1:S4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="R1:R4"/>
@@ -3164,12 +3334,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="S1:S4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA1BD8A-9EE7-4919-806A-25FA739990F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF59E0E-D2CF-4A85-BDEA-8672FFABB2BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3780" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="149">
   <si>
     <t>Basic Information</t>
   </si>
@@ -364,10 +364,6 @@
     <t>"fit indices are consistent with good model fit"</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: "standardized residuals (5.04) and modification indices (d12,11 = 25.94) indicate  that the relationship between these items has not been adequately reproduced by the  model’s parameter estimates."
- </t>
-  </si>
-  <si>
     <t xml:space="preserve">Not available </t>
   </si>
   <si>
@@ -381,9 +377,6 @@
   </si>
   <si>
     <t>Source:"Most of the larger and positive residuals are between Hand Movements and other tasks specified to measure the other factor. Because the standardized  pattern coefficient of Hand Movements is at least moderate (.497; Table 13.3), it is possible that this task may measure both factors."</t>
-  </si>
-  <si>
-    <t>Source: "handmov is not specified to measure Simul"</t>
   </si>
   <si>
     <t>Source: "The  value of the RMSEA is .057, which does not seem terrible, but the upper bound of its 90%  confidence interval, .103, is so high that the poor-fit hypothesis cannot be rejected. The  fit of the analyzed path model (Figure 7.5) is about 96.2% better than that of the independence model (CFI = .962), which in LISREL assumes zero population covariances for  all pairs of measured variables. Neither the value of the CFI nor that of the SRMR, which  equals .051 (see the table), indicates a glaring problem."</t>
@@ -630,6 +623,10 @@
   <si>
     <t>UTF8-comma:No rcode, Error: Improper CFA solution. This can be due to: Outliers, small sample size,
 multicollinearity, model misspecification etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: "standardized residuals (5.04) and modification indices (d12,11 = 25.94) indicate  that the relationship between these items has not been adequately reproduced by the  model’s parameter estimates." different interpretations
+ </t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1250,9 +1247,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1266,9 +1260,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1303,9 +1294,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1398,12 +1386,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1494,6 +1476,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1811,11 +1802,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1844,220 +1835,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="T1" s="88" t="s">
-        <v>148</v>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" s="83" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="67" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="69" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="77" t="s">
+      <c r="P2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="88"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="83"/>
     </row>
     <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="52"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="40" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="88"/>
-    </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="83"/>
+    </row>
+    <row r="4" spans="1:20" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="45"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="88"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="83"/>
     </row>
     <row r="5" spans="1:20" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="S5" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="T5" s="91"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" s="86"/>
     </row>
     <row r="6" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="58"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
@@ -2097,21 +2088,23 @@
       <c r="O6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S6" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="T6" s="89" t="s">
+      <c r="P6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="T6" s="84" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="58"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="7"/>
@@ -2128,7 +2121,7 @@
         <v>53</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -2137,13 +2130,13 @@
       <c r="K7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="19" t="s">
         <v>50</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -2152,16 +2145,16 @@
       <c r="P7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="T7" s="91"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="T7" s="86"/>
     </row>
     <row r="8" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="58"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2171,24 +2164,24 @@
         <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>59</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -2197,25 +2190,25 @@
       <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="60"/>
+      <c r="N8" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" s="90"/>
       <c r="P8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="S8" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="T8" s="91"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" s="86"/>
     </row>
     <row r="9" spans="1:20" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="58"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7"/>
@@ -2223,45 +2216,45 @@
         <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>67</v>
+      <c r="N9" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="T9" s="91"/>
+      <c r="P9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="86"/>
     </row>
     <row r="10" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="58"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="7"/>
@@ -2274,15 +2267,15 @@
       <c r="H10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>69</v>
+      <c r="L10" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>50</v>
@@ -2293,31 +2286,31 @@
       <c r="O10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="S10" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="T10" s="89" t="s">
+      <c r="P10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="T10" s="84" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="58"/>
-      <c r="B11" s="20" t="s">
-        <v>74</v>
+      <c r="A11" s="55"/>
+      <c r="B11" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2337,38 +2330,38 @@
         <v>50</v>
       </c>
       <c r="M11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="28" t="s">
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="T11" s="86"/>
+    </row>
+    <row r="12" spans="1:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="55"/>
+      <c r="B12" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="T11" s="91"/>
-    </row>
-    <row r="12" spans="1:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="58"/>
-      <c r="B12" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>58</v>
@@ -2389,7 +2382,7 @@
         <v>50</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>50</v>
@@ -2397,29 +2390,29 @@
       <c r="O12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S12" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="T12" s="89"/>
+      <c r="P12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S12" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="T12" s="84"/>
     </row>
     <row r="13" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="58"/>
-      <c r="B13" s="20" t="s">
-        <v>80</v>
+      <c r="A13" s="55"/>
+      <c r="B13" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2436,10 +2429,10 @@
         <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>50</v>
@@ -2447,49 +2440,49 @@
       <c r="O13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S13" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="T13" s="89"/>
+      <c r="P13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S13" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" s="84"/>
     </row>
     <row r="14" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="58"/>
-      <c r="B14" s="20" t="s">
-        <v>88</v>
+      <c r="A14" s="55"/>
+      <c r="B14" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="M14" s="6" t="s">
         <v>50</v>
       </c>
@@ -2499,68 +2492,68 @@
       <c r="O14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S14" s="42"/>
-      <c r="T14" s="89"/>
-    </row>
-    <row r="15" spans="1:20" s="23" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="58"/>
-      <c r="B15" s="22" t="s">
-        <v>91</v>
+      <c r="P14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S14" s="39"/>
+      <c r="T14" s="84"/>
+    </row>
+    <row r="15" spans="1:20" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="55"/>
+      <c r="B15" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>81</v>
+      <c r="D15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="21" t="s">
+      <c r="H15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S15" s="86"/>
-      <c r="T15" s="90"/>
+        <v>90</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S15" s="81"/>
+      <c r="T15" s="85"/>
     </row>
     <row r="16" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="58"/>
-      <c r="B16" s="20" t="s">
-        <v>89</v>
+      <c r="A16" s="55"/>
+      <c r="B16" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
@@ -2570,7 +2563,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>50</v>
@@ -2591,7 +2584,7 @@
         <v>50</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>50</v>
@@ -2599,85 +2592,85 @@
       <c r="O16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="89"/>
+      <c r="P16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S16" s="39"/>
+      <c r="T16" s="84"/>
     </row>
     <row r="17" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="58"/>
-      <c r="B17" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="21"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="89"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S17" s="39"/>
+      <c r="T17" s="84"/>
     </row>
     <row r="18" spans="1:20" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="58"/>
-      <c r="B18" s="20" t="s">
-        <v>103</v>
+      <c r="A18" s="55"/>
+      <c r="B18" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="21"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="89"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="39"/>
+      <c r="T18" s="84"/>
     </row>
     <row r="19" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="58"/>
-      <c r="B19" s="20" t="s">
-        <v>93</v>
+      <c r="A19" s="55"/>
+      <c r="B19" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>50</v>
@@ -2707,32 +2700,32 @@
       <c r="O19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="89"/>
+      <c r="P19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S19" s="39"/>
+      <c r="T19" s="84"/>
     </row>
     <row r="20" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="58"/>
-      <c r="B20" s="20" t="s">
-        <v>95</v>
+      <c r="A20" s="55"/>
+      <c r="B20" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="H20" s="6" t="s">
         <v>52</v>
       </c>
@@ -2749,7 +2742,7 @@
         <v>52</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>52</v>
@@ -2757,29 +2750,29 @@
       <c r="O20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="S20" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="T20" s="89"/>
+      <c r="P20" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="S20" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="T20" s="84"/>
     </row>
     <row r="21" spans="1:20" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="25" t="s">
-        <v>104</v>
+      <c r="A21" s="55"/>
+      <c r="B21" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
@@ -2809,27 +2802,27 @@
       <c r="O21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S21" s="42"/>
-      <c r="T21" s="89"/>
+      <c r="P21" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="S21" s="39"/>
+      <c r="T21" s="84"/>
     </row>
     <row r="22" spans="1:20" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="58"/>
-      <c r="B22" s="25" t="s">
-        <v>107</v>
+      <c r="A22" s="55"/>
+      <c r="B22" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -2857,29 +2850,29 @@
       <c r="O22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="T22" s="92" t="s">
+      <c r="P22" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="T22" s="87" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="58"/>
-      <c r="B23" s="25" t="s">
-        <v>109</v>
+      <c r="A23" s="55"/>
+      <c r="B23" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>50</v>
@@ -2911,29 +2904,29 @@
       <c r="O23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="S23" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="T23" s="89" t="s">
+      <c r="P23" s="28"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="S23" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="T23" s="84" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="58"/>
-      <c r="B24" s="25" t="s">
-        <v>112</v>
+      <c r="A24" s="55"/>
+      <c r="B24" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>110</v>
+      <c r="E24" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="6" t="s">
@@ -2963,27 +2956,27 @@
       <c r="O24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="31" t="s">
+      <c r="P24" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="86"/>
+    </row>
+    <row r="25" spans="1:20" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="55"/>
+      <c r="B25" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="T24" s="91"/>
-    </row>
-    <row r="25" spans="1:20" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="58"/>
-      <c r="B25" s="25" t="s">
-        <v>113</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>114</v>
+      <c r="E25" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>52</v>
@@ -3015,33 +3008,33 @@
       <c r="O25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P25" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="T25" s="91"/>
+      <c r="P25" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="T25" s="86"/>
     </row>
     <row r="26" spans="1:20" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="58"/>
-      <c r="B26" s="25" t="s">
-        <v>118</v>
+      <c r="A26" s="55"/>
+      <c r="B26" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>52</v>
@@ -3059,7 +3052,7 @@
         <v>52</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>52</v>
@@ -3067,25 +3060,25 @@
       <c r="O26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="T26" s="89" t="s">
+      <c r="P26" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="T26" s="84" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="46" t="s">
         <v>120</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>122</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -3099,145 +3092,145 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="44" t="s">
+      <c r="P27" s="26"/>
+      <c r="Q27" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="R27" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="S27" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="T27" s="84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="55"/>
+      <c r="B28" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="R27" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="S27" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="T27" s="89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="58"/>
-      <c r="B28" s="32" t="s">
+      <c r="N28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P28" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="N28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="P28" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="T28" s="91"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="T28" s="86"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A29" s="58"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A30" s="58"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A31" s="58"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A32" s="58"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C33" s="4"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF59E0E-D2CF-4A85-BDEA-8672FFABB2BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1DC74-3DD6-4090-A2AB-4AB87A6C8AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="138">
   <si>
     <t>Basic Information</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>Case6_5v_2f</t>
-  </si>
-  <si>
-    <t>no modification indices listed, in book (p. 286): 2 modification indices larger than 4</t>
-  </si>
-  <si>
-    <t>RMSEA, SRMR: same range</t>
   </si>
   <si>
     <t>Not availble in source</t>
@@ -379,9 +373,6 @@
     <t>Source:"Most of the larger and positive residuals are between Hand Movements and other tasks specified to measure the other factor. Because the standardized  pattern coefficient of Hand Movements is at least moderate (.497; Table 13.3), it is possible that this task may measure both factors."</t>
   </si>
   <si>
-    <t>Source: "The  value of the RMSEA is .057, which does not seem terrible, but the upper bound of its 90%  confidence interval, .103, is so high that the poor-fit hypothesis cannot be rejected. The  fit of the analyzed path model (Figure 7.5) is about 96.2% better than that of the independence model (CFI = .962), which in LISREL assumes zero population covariances for  all pairs of measured variables. Neither the value of the CFI nor that of the SRMR, which  equals .051 (see the table), indicates a glaring problem."</t>
-  </si>
-  <si>
     <t>source: "Inspection of the residuals for the four-factor CFA model indicated few apparent problems. For example, two absolute correlation residuals (computed in EQS) just  exceed .10, which is not a bad result in a larger model."</t>
   </si>
   <si>
@@ -529,9 +520,6 @@
     <t>Case21_9v_1f female (same results for male)</t>
   </si>
   <si>
-    <t>Errors in PDF 07/01/2021</t>
-  </si>
-  <si>
     <t>Case22_6v_3f</t>
   </si>
   <si>
@@ -556,24 +544,6 @@
     <t>Error in lapply(X = X, FUN = FUN, ...): object 'df_cont' not found Error in which(complete_rate &lt; 0.95): object 'complete_rate' not found Error in which(complete_rate &lt; 1 &amp; complete_rate &gt; 0.95): object 'complete_rate' not found, Error: Errors in the cfa execution. Please reconsider the data or the model</t>
   </si>
   <si>
-    <t>Errors in PDF 08/01/2021</t>
-  </si>
-  <si>
-    <t>for case_1 missing: no information except basic information; for case 1 outliers: "Error: Improper CFA solution. This can be due to: Outliers, small sample size, non-normality, multicollinearity, model misspecification."</t>
-  </si>
-  <si>
-    <t>no information except basic information</t>
-  </si>
-  <si>
-    <t>Error: Improper CFA solution. This can be due to: Outliers, small sample size, non-normality, multicollinearity, model misspecification.</t>
-  </si>
-  <si>
-    <t>For model 2: Error: Improper CFA solution. This can be due to: Outliers, small sample size, non-normality, multicollinearity, model misspecification.</t>
-  </si>
-  <si>
-    <t>Error: Improper CFA solution. This can be due to: Outliers, small sample size, non-normality, multicollinearity, model misspecification</t>
-  </si>
-  <si>
     <t>Errors in R Code 14/01/2021</t>
   </si>
   <si>
@@ -586,23 +556,6 @@
     <t>UTF8-dot</t>
   </si>
   <si>
-    <t>UTF8-dot: no r-code</t>
-  </si>
-  <si>
-    <t>auto-auto: no R-Code</t>
-  </si>
-  <si>
-    <t>auto-comma: no rcode, seems like the comma-seperation goes wrong (for comma and dot)</t>
-  </si>
-  <si>
-    <t>auto-dot: no rcode (Error: Improper CFA solution. This can be due to: Outliers, small sample size,
-multicollinearity, model misspecification etc.)</t>
-  </si>
-  <si>
-    <t>auto-auto: no rcode: Error: Improper CFA solution. This can be due to: Outliers, small sample size,
-multicollinearity, model misspecification etc.</t>
-  </si>
-  <si>
     <t>utf8-dot</t>
   </si>
   <si>
@@ -612,28 +565,39 @@
     <t>auto-dot</t>
   </si>
   <si>
-    <t>auto-auto: Error: Improper CFA solution. This can be due to: Outliers, small sample size, multicollinearity, model misspecification etc.</t>
-  </si>
-  <si>
-    <t>Higher-order factors were ignored.</t>
-  </si>
-  <si>
     <t>discriminant validity</t>
-  </si>
-  <si>
-    <t>UTF8-comma:No rcode, Error: Improper CFA solution. This can be due to: Outliers, small sample size,
-multicollinearity, model misspecification etc.</t>
   </si>
   <si>
     <t xml:space="preserve">Source: "standardized residuals (5.04) and modification indices (d12,11 = 25.94) indicate  that the relationship between these items has not been adequately reproduced by the  model’s parameter estimates." different interpretations
  </t>
+  </si>
+  <si>
+    <t>non-continuous</t>
+  </si>
+  <si>
+    <t>Case7</t>
+  </si>
+  <si>
+    <t>Case24</t>
+  </si>
+  <si>
+    <t>Case25</t>
+  </si>
+  <si>
+    <t>Case26</t>
+  </si>
+  <si>
+    <t>cfa error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error: higher order factors were allowed </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +637,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1336,30 +1306,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1378,75 +1363,84 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1461,30 +1455,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1800,983 +1770,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.265625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.265625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="5" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26" style="5" customWidth="1"/>
-    <col min="18" max="18" width="32.86328125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="18.86328125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="18.59765625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="11.3984375" style="2"/>
+    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="R1" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="T1" s="83" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="62" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="90"/>
+      <c r="H2" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="66" t="s">
+      <c r="J2" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="68" t="s">
+      <c r="L2" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="83"/>
-    </row>
-    <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="49"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="63"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="84"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="83"/>
-    </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="84"/>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="84"/>
+    </row>
+    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
         <v>41</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="83"/>
-    </row>
-    <row r="5" spans="1:20" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="54" t="s">
-        <v>43</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="T5" s="86"/>
-    </row>
-    <row r="6" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="55"/>
+        <v>21</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="43"/>
+    </row>
+    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S6" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="T6" s="84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="O7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="T7" s="86"/>
-    </row>
-    <row r="8" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="55"/>
+        <v>47</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="43"/>
+    </row>
+    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="L8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="O8" s="63"/>
+      <c r="P8" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="O8" s="90"/>
-      <c r="P8" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="S8" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="T8" s="86"/>
-    </row>
-    <row r="9" spans="1:20" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="55"/>
+      <c r="Q8" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" s="43"/>
+    </row>
+    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="T9" s="86"/>
-    </row>
-    <row r="10" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="55"/>
+        <v>48</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" s="43"/>
+    </row>
+    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="S10" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="T10" s="84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="55"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
+    </row>
+    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
       <c r="B11" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
+    </row>
+    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
+      <c r="B12" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="T11" s="86"/>
-    </row>
-    <row r="12" spans="1:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="55"/>
-      <c r="B12" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S12" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="T12" s="84"/>
-    </row>
-    <row r="13" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="55"/>
+        <v>48</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
       <c r="B13" s="18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S13" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="T13" s="84"/>
-    </row>
-    <row r="14" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55"/>
+        <v>48</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R13" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
       <c r="B14" s="18" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R15" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S14" s="39"/>
-      <c r="T14" s="84"/>
-    </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="55"/>
-      <c r="B15" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S15" s="81"/>
-      <c r="T15" s="85"/>
-    </row>
-    <row r="16" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="55"/>
-      <c r="B16" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S16" s="39"/>
-      <c r="T16" s="84"/>
-    </row>
-    <row r="17" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="55"/>
-      <c r="B17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S17" s="39"/>
-      <c r="T17" s="84"/>
-    </row>
-    <row r="18" spans="1:20" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="55"/>
+      <c r="N17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
       <c r="B18" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="26"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S18" s="39"/>
-      <c r="T18" s="84"/>
-    </row>
-    <row r="19" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="55"/>
+      <c r="Q18" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R18" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
       <c r="B19" s="18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S19" s="39"/>
-      <c r="T19" s="84"/>
-    </row>
-    <row r="20" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="55"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R19" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
       <c r="B20" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>95</v>
+        <v>48</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="S20" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="T20" s="84"/>
-    </row>
-    <row r="21" spans="1:20" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="55"/>
-      <c r="B21" s="23" t="s">
-        <v>102</v>
+        <v>48</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>103</v>
+        <v>50</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="6" t="s">
-        <v>50</v>
+      <c r="G21" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>50</v>
@@ -2793,8 +2671,8 @@
       <c r="L21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>50</v>
+      <c r="M21" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>50</v>
@@ -2802,453 +2680,471 @@
       <c r="O21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="S21" s="39"/>
-      <c r="T21" s="84"/>
-    </row>
-    <row r="22" spans="1:20" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="55"/>
+      <c r="P21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
       <c r="B22" s="23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>50</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="H22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="T22" s="87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="55"/>
+        <v>48</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R22" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
       <c r="B23" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="S23" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="T23" s="84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="55"/>
+        <v>48</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="R23" s="43"/>
+    </row>
+    <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
       <c r="B24" s="23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="T24" s="86"/>
-    </row>
-    <row r="25" spans="1:20" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="55"/>
+        <v>48</v>
+      </c>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
       <c r="B25" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>58</v>
+        <v>105</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="T25" s="86"/>
-    </row>
-    <row r="26" spans="1:20" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="55"/>
+        <v>50</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="R25" s="43"/>
+    </row>
+    <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
       <c r="B26" s="23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="R26" s="43"/>
+    </row>
+    <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
+      <c r="B27" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="R27" s="43"/>
+    </row>
+    <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="R28" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="61"/>
+      <c r="B29" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="T26" s="84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="55"/>
-      <c r="B27" s="23" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="R27" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="S27" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="T27" s="84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="55"/>
-      <c r="B28" s="29" t="s">
+      <c r="N29" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="P28" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="T28" s="86"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A29" s="55"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A30" s="55"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A31" s="55"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A32" s="55"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="P29" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="R29" s="43"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="61"/>
+      <c r="B30" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="53"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="B31" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="53"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="61"/>
+      <c r="B32" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="53"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="61"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3264,7 +3160,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3280,7 +3176,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3296,16 +3192,31 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="T1:T4"/>
-    <mergeCell ref="S1:S4"/>
+  <mergeCells count="21">
+    <mergeCell ref="R1:R4"/>
     <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
@@ -3313,8 +3224,7 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="A5:A32"/>
+    <mergeCell ref="A5:A33"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
@@ -3328,6 +3238,7 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1DC74-3DD6-4090-A2AB-4AB87A6C8AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254211B7-F1E7-41DD-AD60-A28122E73AC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="138">
   <si>
     <t>Basic Information</t>
   </si>
@@ -590,7 +590,7 @@
     <t>cfa error</t>
   </si>
   <si>
-    <t xml:space="preserve">error: higher order factors were allowed </t>
+    <t>higher-order error</t>
   </si>
 </sst>
 </file>
@@ -1306,9 +1306,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1345,6 +1342,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1411,12 +1435,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,26 +1453,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,10 +1773,10 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="L23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1803,109 +1803,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="85" t="s">
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="70" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="84"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="71"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="37" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="84"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53"/>
     </row>
     <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
         <v>7</v>
@@ -1949,11 +1949,11 @@
       <c r="P4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="84"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="53"/>
     </row>
     <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="68" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1990,16 +1990,16 @@
       <c r="O5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="43" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="43"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2043,15 +2043,15 @@
       <c r="P6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="R6" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -2096,10 +2096,10 @@
       <c r="Q7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="43"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -2136,20 +2136,20 @@
       <c r="M8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="63"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="28" t="s">
         <v>58</v>
       </c>
       <c r="Q8" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="43"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
@@ -2190,54 +2190,54 @@
       <c r="Q9" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="43"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="48"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="47"/>
     </row>
     <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47"/>
     </row>
     <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
@@ -2280,10 +2280,10 @@
       <c r="Q12" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="R12" s="43"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="18" t="s">
         <v>70</v>
       </c>
@@ -2324,18 +2324,18 @@
       <c r="O13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="46" t="s">
+      <c r="P13" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="42" t="s">
+      <c r="Q13" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R13" s="42" t="s">
+      <c r="R13" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="18" t="s">
         <v>75</v>
       </c>
@@ -2375,15 +2375,15 @@
       <c r="P14" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="42" t="s">
+      <c r="Q14" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R14" s="42" t="s">
+      <c r="R14" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="18" t="s">
         <v>83</v>
       </c>
@@ -2425,15 +2425,15 @@
       <c r="P15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="42" t="s">
+      <c r="Q15" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R15" s="42" t="s">
+      <c r="R15" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="20" t="s">
         <v>86</v>
       </c>
@@ -2473,15 +2473,15 @@
       <c r="P16" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="42" t="s">
+      <c r="Q16" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
@@ -2525,15 +2525,15 @@
       <c r="P17" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="42" t="s">
+      <c r="Q17" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="18" t="s">
         <v>97</v>
       </c>
@@ -2553,15 +2553,15 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="26"/>
-      <c r="Q18" s="42" t="s">
+      <c r="Q18" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R18" s="42" t="s">
+      <c r="R18" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="18" t="s">
         <v>98</v>
       </c>
@@ -2583,15 +2583,15 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="26"/>
-      <c r="Q19" s="42" t="s">
+      <c r="Q19" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R19" s="42" t="s">
+      <c r="R19" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
@@ -2633,15 +2633,15 @@
       <c r="P20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="42" t="s">
+      <c r="Q20" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R20" s="42" t="s">
+      <c r="R20" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="18" t="s">
         <v>90</v>
       </c>
@@ -2683,15 +2683,15 @@
       <c r="P21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="42" t="s">
+      <c r="Q21" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="R21" s="42" t="s">
+      <c r="R21" s="41" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
@@ -2733,15 +2733,15 @@
       <c r="P22" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="42" t="s">
+      <c r="Q22" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="42" t="s">
+      <c r="R22" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="23" t="s">
         <v>102</v>
       </c>
@@ -2784,10 +2784,10 @@
       <c r="Q23" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="R23" s="43"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="23" t="s">
         <v>104</v>
       </c>
@@ -2829,15 +2829,15 @@
         <v>48</v>
       </c>
       <c r="P24" s="28"/>
-      <c r="Q24" s="42" t="s">
+      <c r="Q24" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="R24" s="42" t="s">
+      <c r="R24" s="41" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="23" t="s">
         <v>107</v>
       </c>
@@ -2882,10 +2882,10 @@
       <c r="Q25" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="R25" s="43"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="23" t="s">
         <v>108</v>
       </c>
@@ -2932,10 +2932,10 @@
       <c r="Q26" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="R26" s="43"/>
+      <c r="R26" s="42"/>
     </row>
     <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="23" t="s">
         <v>113</v>
       </c>
@@ -2982,14 +2982,14 @@
       <c r="Q27" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="R27" s="43"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="40" t="s">
         <v>116</v>
       </c>
       <c r="D28" s="6"/>
@@ -3005,15 +3005,15 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="26"/>
-      <c r="Q28" s="42" t="s">
+      <c r="Q28" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="R28" s="42" t="s">
+      <c r="R28" s="41" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="29" t="s">
         <v>115</v>
       </c>
@@ -3055,79 +3055,81 @@
       <c r="P29" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="39" t="s">
+      <c r="Q29" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="R29" s="43"/>
+      <c r="R29" s="90" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="53"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="52"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="53"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="52"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="53"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="52"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="34"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -3216,12 +3218,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A5:A33"/>
@@ -3237,6 +3233,12 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254211B7-F1E7-41DD-AD60-A28122E73AC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2162FB43-6C1B-44C2-AAE9-20BB442EBB69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="152">
   <si>
     <t>Basic Information</t>
   </si>
@@ -591,6 +591,48 @@
   </si>
   <si>
     <t>higher-order error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unstandardized coefficient was fixed to 1 </t>
+  </si>
+  <si>
+    <t>because the standardized pattern coefficient of Hand Movements is at least moderate, it is possible that this task may measur both factors</t>
+  </si>
+  <si>
+    <t>"model fails both the exact-fit and close-fit tests and the lower bound of RMSEA's 90% confidence interval"</t>
+  </si>
+  <si>
+    <t>in source: "poor global fit";  in report: gof of the model is uncertain</t>
+  </si>
+  <si>
+    <t>in source: "hand movement measures both factors is plausible"; in report: no significant and relevant modification indices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Information about the model </t>
+  </si>
+  <si>
+    <t>all values of approximate-fit indexes are generally favorable</t>
+  </si>
+  <si>
+    <t>"few apparent problems", no absolute correlation residuals exceeded .10</t>
+  </si>
+  <si>
+    <t>The model just passes the exact-fit test at the .05 level; it also passes the close-fit test  at the same level. Values of the CFI and SRMR are generally favorable, but results on  the RMSEA are poor:</t>
+  </si>
+  <si>
+    <t>Based on all these results, the respecified nonrecursive model with a direct effect from  continuance organizational commitment to occupational turnover intention is retained</t>
+  </si>
+  <si>
+    <t>the impact of the intention to leave one’s place of work on the  intention to leave one’s profession is greater than the magnitude of the influence in  the other direction by a ratio of almost eight</t>
+  </si>
+  <si>
+    <t>Error: Improper CFA solution. This can be due to: Outliers, small sample size, multicollinearity, model misspecification etc.</t>
+  </si>
+  <si>
+    <t>Case25-one factor model</t>
+  </si>
+  <si>
+    <t>poor model fit- not useful</t>
   </si>
 </sst>
 </file>
@@ -648,7 +690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,12 +723,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -710,7 +746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1194,11 +1230,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1223,7 +1270,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1236,10 +1283,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1248,29 +1295,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,19 +1344,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1325,24 +1369,100 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1357,103 +1477,29 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1770,142 +1816,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="L23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U29" sqref="U29"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.265625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.59765625" style="5" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.28515625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.265625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="18.59765625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="54" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="76" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="78" t="s">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="47"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="80" t="s">
+      <c r="G2" s="82"/>
+      <c r="H2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="53"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="37" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="76"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="53"/>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="76"/>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="38"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
         <v>7</v>
@@ -1949,11 +1995,11 @@
       <c r="P4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="53"/>
-    </row>
-    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
+      <c r="Q4" s="77"/>
+      <c r="R4" s="76"/>
+    </row>
+    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="52" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1990,16 +2036,16 @@
       <c r="O5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="42"/>
-    </row>
-    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="R5" s="41"/>
+    </row>
+    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="53"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2040,18 +2086,18 @@
       <c r="O6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="53"/>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -2090,16 +2136,16 @@
       <c r="O7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="42"/>
-    </row>
-    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="53"/>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -2136,20 +2182,20 @@
       <c r="M8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="71"/>
-      <c r="P8" s="28" t="s">
+      <c r="O8" s="55"/>
+      <c r="P8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="42"/>
-    </row>
-    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+      <c r="R8" s="41"/>
+    </row>
+    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="53"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
@@ -2184,60 +2230,82 @@
       <c r="O9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" s="38" t="s">
+      <c r="P9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="42"/>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="53"/>
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="47"/>
-    </row>
-    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="41"/>
+    </row>
+    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="53"/>
       <c r="B11" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="47"/>
-    </row>
-    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="41"/>
+    </row>
+    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="53"/>
       <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
@@ -2274,16 +2342,16 @@
       <c r="O12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="38" t="s">
+      <c r="Q12" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="R12" s="42"/>
-    </row>
-    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="R12" s="41"/>
+    </row>
+    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="53"/>
       <c r="B13" s="18" t="s">
         <v>70</v>
       </c>
@@ -2324,18 +2392,18 @@
       <c r="O13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="41" t="s">
+      <c r="Q13" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R13" s="41" t="s">
+      <c r="R13" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
+    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="53"/>
       <c r="B14" s="18" t="s">
         <v>75</v>
       </c>
@@ -2372,18 +2440,18 @@
       <c r="O14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" s="41" t="s">
+      <c r="P14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
+    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="53"/>
       <c r="B15" s="18" t="s">
         <v>83</v>
       </c>
@@ -2422,18 +2490,18 @@
       <c r="O15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="41" t="s">
+      <c r="P15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R15" s="41" t="s">
+      <c r="R15" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="53"/>
       <c r="B16" s="20" t="s">
         <v>86</v>
       </c>
@@ -2470,18 +2538,18 @@
       <c r="O16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="41" t="s">
+      <c r="P16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
+    <row r="17" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="53"/>
       <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
@@ -2522,18 +2590,18 @@
       <c r="O17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="41" t="s">
+      <c r="P17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R17" s="41" t="s">
+      <c r="R17" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+    <row r="18" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="53"/>
       <c r="B18" s="18" t="s">
         <v>97</v>
       </c>
@@ -2552,16 +2620,16 @@
       <c r="M18" s="19"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="41" t="s">
+      <c r="P18" s="25"/>
+      <c r="Q18" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R18" s="41" t="s">
+      <c r="R18" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
+    <row r="19" spans="1:19" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="53"/>
       <c r="B19" s="18" t="s">
         <v>98</v>
       </c>
@@ -2582,16 +2650,16 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="41" t="s">
+      <c r="P19" s="25"/>
+      <c r="Q19" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R19" s="41" t="s">
+      <c r="R19" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="69"/>
+    <row r="20" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="53"/>
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
@@ -2630,18 +2698,18 @@
       <c r="O20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="41" t="s">
+      <c r="P20" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R20" s="41" t="s">
+      <c r="R20" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="53"/>
       <c r="B21" s="18" t="s">
         <v>90</v>
       </c>
@@ -2680,18 +2748,18 @@
       <c r="O21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="41" t="s">
+      <c r="P21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="R21" s="41" t="s">
+      <c r="R21" s="40" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="69"/>
+    <row r="22" spans="1:19" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="53"/>
       <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
@@ -2730,18 +2798,18 @@
       <c r="O22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="28" t="s">
+      <c r="P22" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="41" t="s">
+      <c r="Q22" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="41" t="s">
+      <c r="R22" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="69"/>
+    <row r="23" spans="1:19" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="53"/>
       <c r="B23" s="23" t="s">
         <v>102</v>
       </c>
@@ -2778,16 +2846,16 @@
       <c r="O23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" s="38" t="s">
+      <c r="P23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="R23" s="42"/>
-    </row>
-    <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="69"/>
+      <c r="R23" s="41"/>
+    </row>
+    <row r="24" spans="1:19" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="53"/>
       <c r="B24" s="23" t="s">
         <v>104</v>
       </c>
@@ -2828,16 +2896,16 @@
       <c r="O24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="41" t="s">
+      <c r="P24" s="27"/>
+      <c r="Q24" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="R24" s="41" t="s">
+      <c r="R24" s="40" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="69"/>
+    <row r="25" spans="1:19" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="53"/>
       <c r="B25" s="23" t="s">
         <v>107</v>
       </c>
@@ -2876,16 +2944,16 @@
       <c r="O25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P25" s="28" t="s">
+      <c r="P25" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="Q25" s="38" t="s">
+      <c r="Q25" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="R25" s="42"/>
-    </row>
-    <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
+      <c r="R25" s="41"/>
+    </row>
+    <row r="26" spans="1:19" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="53"/>
       <c r="B26" s="23" t="s">
         <v>108</v>
       </c>
@@ -2926,16 +2994,16 @@
       <c r="O26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26" s="38" t="s">
+      <c r="P26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="R26" s="42"/>
-    </row>
-    <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="69"/>
+      <c r="R26" s="41"/>
+    </row>
+    <row r="27" spans="1:19" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="53"/>
       <c r="B27" s="23" t="s">
         <v>113</v>
       </c>
@@ -2976,20 +3044,20 @@
       <c r="O27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P27" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q27" s="38" t="s">
+      <c r="P27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="R27" s="42"/>
-    </row>
-    <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
+      <c r="R27" s="41"/>
+    </row>
+    <row r="28" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="53"/>
       <c r="B28" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="39" t="s">
         <v>116</v>
       </c>
       <c r="D28" s="6"/>
@@ -3004,165 +3072,210 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="41" t="s">
+      <c r="P28" s="25"/>
+      <c r="Q28" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="R28" s="41" t="s">
+      <c r="R28" s="40" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
-      <c r="B29" s="29" t="s">
+    <row r="29" spans="1:19" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="53"/>
+      <c r="B29" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="32" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="30" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="N29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" s="30" t="s">
+      <c r="N29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="P29" s="33" t="s">
+      <c r="P29" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="90" t="s">
+      <c r="Q29" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="R29" s="90" t="s">
+      <c r="R29" s="83" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="34" t="s">
+    <row r="30" spans="1:19" ht="38.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="53"/>
+      <c r="B30" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="52"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="69"/>
-      <c r="B31" s="34" t="s">
+      <c r="C30" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="R30" s="88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="53"/>
+      <c r="B31" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="52"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="69"/>
-      <c r="B32" s="34" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O31" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="41"/>
+    </row>
+    <row r="32" spans="1:19" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="53"/>
+      <c r="B32" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="21"/>
+    </row>
+    <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="53"/>
+      <c r="B33" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="52"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C33" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N33" s="19"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q33" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="R33" s="88"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34" s="53"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3178,7 +3291,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3194,7 +3307,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3210,17 +3323,40 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="C30:P30"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A5:A33"/>
+    <mergeCell ref="A5:A34"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
@@ -3233,12 +3369,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2162FB43-6C1B-44C2-AAE9-20BB442EBB69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509E6C5F-193F-447D-BA09-7AF0C69DB4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="151">
   <si>
     <t>Basic Information</t>
   </si>
@@ -587,12 +587,6 @@
     <t>Case26</t>
   </si>
   <si>
-    <t>cfa error</t>
-  </si>
-  <si>
-    <t>higher-order error</t>
-  </si>
-  <si>
     <t xml:space="preserve">unstandardized coefficient was fixed to 1 </t>
   </si>
   <si>
@@ -617,22 +611,25 @@
     <t>"few apparent problems", no absolute correlation residuals exceeded .10</t>
   </si>
   <si>
-    <t>The model just passes the exact-fit test at the .05 level; it also passes the close-fit test  at the same level. Values of the CFI and SRMR are generally favorable, but results on  the RMSEA are poor:</t>
-  </si>
-  <si>
-    <t>Based on all these results, the respecified nonrecursive model with a direct effect from  continuance organizational commitment to occupational turnover intention is retained</t>
-  </si>
-  <si>
-    <t>the impact of the intention to leave one’s place of work on the  intention to leave one’s profession is greater than the magnitude of the influence in  the other direction by a ratio of almost eight</t>
-  </si>
-  <si>
-    <t>Error: Improper CFA solution. This can be due to: Outliers, small sample size, multicollinearity, model misspecification etc.</t>
-  </si>
-  <si>
     <t>Case25-one factor model</t>
   </si>
   <si>
-    <t>poor model fit- not useful</t>
+    <t>drop higher-order error</t>
+  </si>
+  <si>
+    <t>Case27</t>
+  </si>
+  <si>
+    <t>Case28</t>
+  </si>
+  <si>
+    <t>clarify model</t>
+  </si>
+  <si>
+    <t>model without sex</t>
+  </si>
+  <si>
+    <t>rename columns</t>
   </si>
 </sst>
 </file>
@@ -690,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +742,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -1245,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1335,15 +1338,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1372,6 +1366,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1462,6 +1466,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1483,23 +1496,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1818,140 +1815,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.265625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.265625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="5" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.265625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="18.59765625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.3984375" style="2"/>
+    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="77" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="80" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="62" t="s">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="64" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="76"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="36" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="80"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="76"/>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="38"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="80"/>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
         <v>7</v>
@@ -1995,11 +1992,11 @@
       <c r="P4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="76"/>
-    </row>
-    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52" t="s">
+      <c r="Q4" s="81"/>
+      <c r="R4" s="80"/>
+    </row>
+    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2036,16 +2033,16 @@
       <c r="O5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="41"/>
-    </row>
-    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53"/>
+      <c r="R5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2089,15 +2086,15 @@
       <c r="P6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="53"/>
+    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -2139,13 +2136,13 @@
       <c r="P7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="41"/>
-    </row>
-    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="53"/>
+      <c r="R7" s="38"/>
+    </row>
+    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -2182,20 +2179,20 @@
       <c r="M8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="55"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="37" t="s">
+      <c r="Q8" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="41"/>
-    </row>
-    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53"/>
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
@@ -2233,43 +2230,43 @@
       <c r="P9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="37" t="s">
+      <c r="Q9" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="41"/>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="53"/>
+      <c r="R9" s="38"/>
+    </row>
+    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="37" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="R10" s="41"/>
-    </row>
-    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="53"/>
+      <c r="R10" s="38"/>
+    </row>
+    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
       <c r="B11" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="7" t="s">
@@ -2287,25 +2284,25 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="P11" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="41"/>
-    </row>
-    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="38"/>
+    </row>
+    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
       <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
@@ -2345,13 +2342,13 @@
       <c r="P12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="R12" s="41"/>
-    </row>
-    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="53"/>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
       <c r="B13" s="18" t="s">
         <v>70</v>
       </c>
@@ -2392,18 +2389,18 @@
       <c r="O13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="44" t="s">
+      <c r="P13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="40" t="s">
+      <c r="Q13" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R13" s="40" t="s">
+      <c r="R13" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="53"/>
+    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
       <c r="B14" s="18" t="s">
         <v>75</v>
       </c>
@@ -2443,15 +2440,15 @@
       <c r="P14" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="40" t="s">
+      <c r="Q14" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
       <c r="B15" s="18" t="s">
         <v>83</v>
       </c>
@@ -2493,15 +2490,15 @@
       <c r="P15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="40" t="s">
+      <c r="Q15" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="53"/>
+    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
       <c r="B16" s="20" t="s">
         <v>86</v>
       </c>
@@ -2541,15 +2538,15 @@
       <c r="P16" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="40" t="s">
+      <c r="Q16" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="53"/>
+    <row r="17" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
       <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
@@ -2593,15 +2590,15 @@
       <c r="P17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="40" t="s">
+      <c r="Q17" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="53"/>
+    <row r="18" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
       <c r="B18" s="18" t="s">
         <v>97</v>
       </c>
@@ -2621,15 +2618,15 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="40" t="s">
+      <c r="Q18" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R18" s="40" t="s">
+      <c r="R18" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="53"/>
+    <row r="19" spans="1:19" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
       <c r="B19" s="18" t="s">
         <v>98</v>
       </c>
@@ -2651,15 +2648,15 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="40" t="s">
+      <c r="Q19" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R19" s="40" t="s">
+      <c r="R19" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="53"/>
+    <row r="20" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
@@ -2701,15 +2698,15 @@
       <c r="P20" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="40" t="s">
+      <c r="Q20" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="R20" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="53"/>
+    <row r="21" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="54"/>
       <c r="B21" s="18" t="s">
         <v>90</v>
       </c>
@@ -2751,15 +2748,15 @@
       <c r="P21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="R21" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="53"/>
+      <c r="Q21" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="R21" s="87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="54"/>
       <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
@@ -2801,15 +2798,15 @@
       <c r="P22" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="40" t="s">
+      <c r="Q22" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="40" t="s">
+      <c r="R22" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="53"/>
+    <row r="23" spans="1:19" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="54"/>
       <c r="B23" s="23" t="s">
         <v>102</v>
       </c>
@@ -2849,13 +2846,13 @@
       <c r="P23" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="Q23" s="37" t="s">
+      <c r="Q23" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="R23" s="41"/>
-    </row>
-    <row r="24" spans="1:19" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53"/>
+      <c r="R23" s="38"/>
+    </row>
+    <row r="24" spans="1:19" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="54"/>
       <c r="B24" s="23" t="s">
         <v>104</v>
       </c>
@@ -2897,15 +2894,11 @@
         <v>48</v>
       </c>
       <c r="P24" s="27"/>
-      <c r="Q24" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="R24" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="53"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+    </row>
+    <row r="25" spans="1:19" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="54"/>
       <c r="B25" s="23" t="s">
         <v>107</v>
       </c>
@@ -2947,13 +2940,13 @@
       <c r="P25" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="Q25" s="37" t="s">
+      <c r="Q25" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="R25" s="41"/>
-    </row>
-    <row r="26" spans="1:19" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="53"/>
+      <c r="R25" s="38"/>
+    </row>
+    <row r="26" spans="1:19" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
       <c r="B26" s="23" t="s">
         <v>108</v>
       </c>
@@ -2997,13 +2990,13 @@
       <c r="P26" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Q26" s="37" t="s">
+      <c r="Q26" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="R26" s="41"/>
-    </row>
-    <row r="27" spans="1:19" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="53"/>
+      <c r="R26" s="38"/>
+    </row>
+    <row r="27" spans="1:19" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="54"/>
       <c r="B27" s="23" t="s">
         <v>113</v>
       </c>
@@ -3047,17 +3040,17 @@
       <c r="P27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Q27" s="37" t="s">
+      <c r="Q27" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="R27" s="41"/>
-    </row>
-    <row r="28" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="53"/>
+      <c r="R27" s="38"/>
+    </row>
+    <row r="28" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="54"/>
       <c r="B28" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D28" s="6"/>
@@ -3073,15 +3066,15 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="25"/>
-      <c r="Q28" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="R28" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="53"/>
+      <c r="Q28" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="R28" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="54"/>
       <c r="B29" s="28" t="s">
         <v>115</v>
       </c>
@@ -3123,91 +3116,89 @@
       <c r="P29" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="R29" s="83" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="38.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="53"/>
-      <c r="B30" s="84" t="s">
+      <c r="Q29" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="R29" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="54"/>
+      <c r="B30" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="40" t="s">
+      <c r="C30" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R30" s="88" t="s">
+      <c r="R30" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="53"/>
+    <row r="31" spans="1:19" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54"/>
       <c r="B31" s="23" t="s">
         <v>134</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="43"/>
+      <c r="D31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="40"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" s="43" t="s">
+      <c r="H31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="40" t="s">
         <v>50</v>
       </c>
       <c r="M31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O31" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="38"/>
+    </row>
+    <row r="32" spans="1:19" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="54"/>
+      <c r="B32" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="N31" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O31" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="P31" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="41"/>
-    </row>
-    <row r="32" spans="1:19" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="53"/>
-      <c r="B32" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>151</v>
-      </c>
+      <c r="C32" s="40"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -3219,79 +3210,86 @@
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="88"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="38"/>
       <c r="S32" s="21"/>
     </row>
-    <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="53"/>
-      <c r="B33" s="84" t="s">
+    <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="54"/>
+      <c r="B33" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="R33" s="87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="54"/>
+      <c r="B34" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="38"/>
+    </row>
+    <row r="35" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="N33" s="19"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q33" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="R33" s="88"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A34" s="53"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="R35" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3307,7 +3305,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3323,7 +3321,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3339,7 +3337,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -3347,7 +3345,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C30:P30"/>
     <mergeCell ref="R1:R4"/>
     <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="C1:C3"/>
@@ -3369,6 +3366,7 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C30:P30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509E6C5F-193F-447D-BA09-7AF0C69DB4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9143E7C6-419A-4899-8D6C-2A10C059CD31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="150">
   <si>
     <t>Basic Information</t>
   </si>
@@ -544,9 +544,6 @@
     <t>Error in lapply(X = X, FUN = FUN, ...): object 'df_cont' not found Error in which(complete_rate &lt; 0.95): object 'complete_rate' not found Error in which(complete_rate &lt; 1 &amp; complete_rate &gt; 0.95): object 'complete_rate' not found, Error: Errors in the cfa execution. Please reconsider the data or the model</t>
   </si>
   <si>
-    <t>Errors in R Code 14/01/2021</t>
-  </si>
-  <si>
     <t>auto-auto</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
   </si>
   <si>
     <t>auto-dot</t>
-  </si>
-  <si>
-    <t>discriminant validity</t>
   </si>
   <si>
     <t xml:space="preserve">Source: "standardized residuals (5.04) and modification indices (d12,11 = 25.94) indicate  that the relationship between these items has not been adequately reproduced by the  model’s parameter estimates." different interpretations
@@ -630,6 +624,9 @@
   </si>
   <si>
     <t>rename columns</t>
+  </si>
+  <si>
+    <t>Errors in R-code</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1353,7 +1350,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1369,7 +1365,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1474,9 +1469,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1813,13 +1805,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38:L38"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1840,112 +1832,112 @@
     <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.28515625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.7109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
     <col min="19" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="60" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="80" t="s">
-        <v>129</v>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="78" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="63" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="65" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="80"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="33" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="80"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
     </row>
     <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
@@ -1992,11 +1984,11 @@
       <c r="P4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="80"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
     </row>
     <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="51" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2033,16 +2025,15 @@
       <c r="O5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="38" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="R5" s="38"/>
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2087,14 +2078,11 @@
         <v>17</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -2137,12 +2125,11 @@
         <v>47</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" s="38"/>
+        <v>122</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -2179,20 +2166,19 @@
       <c r="M8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="O8" s="56"/>
+      <c r="N8" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" s="54"/>
       <c r="P8" s="27" t="s">
         <v>58</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="R8" s="38"/>
+        <v>123</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
@@ -2231,42 +2217,40 @@
         <v>48</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="R9" s="38"/>
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
       <c r="Q10" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="38"/>
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="7" t="s">
@@ -2284,25 +2268,24 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="P11" s="26" t="s">
         <v>48</v>
       </c>
       <c r="Q11" s="34"/>
-      <c r="R11" s="38"/>
     </row>
     <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
@@ -2343,12 +2326,11 @@
         <v>68</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="R12" s="38"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="18" t="s">
         <v>70</v>
       </c>
@@ -2389,18 +2371,15 @@
       <c r="O13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="41" t="s">
+      <c r="P13" s="40" t="s">
         <v>72</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R13" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="18" t="s">
         <v>75</v>
       </c>
@@ -2441,14 +2420,11 @@
         <v>48</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R14" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="18" t="s">
         <v>83</v>
       </c>
@@ -2491,14 +2467,11 @@
         <v>48</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R15" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="20" t="s">
         <v>86</v>
       </c>
@@ -2539,14 +2512,11 @@
         <v>50</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R16" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
       <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
@@ -2591,14 +2561,11 @@
         <v>48</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R17" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
       <c r="B18" s="18" t="s">
         <v>97</v>
       </c>
@@ -2619,14 +2586,11 @@
       <c r="O18" s="6"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R18" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
       <c r="B19" s="18" t="s">
         <v>98</v>
       </c>
@@ -2649,14 +2613,11 @@
       <c r="O19" s="6"/>
       <c r="P19" s="25"/>
       <c r="Q19" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R19" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
@@ -2699,14 +2660,11 @@
         <v>48</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R20" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
       <c r="B21" s="18" t="s">
         <v>90</v>
       </c>
@@ -2748,15 +2706,12 @@
       <c r="P21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="R21" s="87" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="Q21" s="84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
       <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
@@ -2799,14 +2754,11 @@
         <v>101</v>
       </c>
       <c r="Q22" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R22" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
       <c r="B23" s="23" t="s">
         <v>102</v>
       </c>
@@ -2847,12 +2799,11 @@
         <v>48</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="R23" s="38"/>
-    </row>
-    <row r="24" spans="1:19" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
       <c r="B24" s="23" t="s">
         <v>104</v>
       </c>
@@ -2895,10 +2846,9 @@
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-    </row>
-    <row r="25" spans="1:19" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
+    </row>
+    <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
       <c r="B25" s="23" t="s">
         <v>107</v>
       </c>
@@ -2941,12 +2891,11 @@
         <v>106</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="R25" s="38"/>
-    </row>
-    <row r="26" spans="1:19" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
       <c r="B26" s="23" t="s">
         <v>108</v>
       </c>
@@ -2991,12 +2940,11 @@
         <v>50</v>
       </c>
       <c r="Q26" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="R26" s="38"/>
-    </row>
-    <row r="27" spans="1:19" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
       <c r="B27" s="23" t="s">
         <v>113</v>
       </c>
@@ -3041,12 +2989,11 @@
         <v>50</v>
       </c>
       <c r="Q27" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="R27" s="38"/>
-    </row>
-    <row r="28" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
       <c r="B28" s="23" t="s">
         <v>114</v>
       </c>
@@ -3067,14 +3014,11 @@
       <c r="O28" s="6"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="R28" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
       <c r="B29" s="28" t="s">
         <v>115</v>
       </c>
@@ -3116,89 +3060,82 @@
       <c r="P29" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="R29" s="45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="79"/>
+      <c r="Q29" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
+      <c r="B30" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="77"/>
       <c r="Q30" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R30" s="44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
       <c r="B31" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="40"/>
+      <c r="D31" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" s="40" t="s">
+      <c r="H31" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="39" t="s">
         <v>50</v>
       </c>
       <c r="M31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="34"/>
+    </row>
+    <row r="32" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="N31" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="O31" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="P31" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="38"/>
-    </row>
-    <row r="32" spans="1:19" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -3213,39 +3150,35 @@
       <c r="O32" s="37"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="34"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="21"/>
-    </row>
-    <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="87" t="s">
-        <v>148</v>
-      </c>
-      <c r="R33" s="87" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
+      <c r="R32" s="21"/>
+    </row>
+    <row r="33" spans="1:17" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
       <c r="B34" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3259,14 +3192,13 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
       <c r="Q34" s="34"/>
-      <c r="R34" s="38"/>
-    </row>
-    <row r="35" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -3280,16 +3212,13 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
       <c r="Q35" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R35" s="44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3305,7 +3234,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3321,7 +3250,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3337,7 +3266,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2162FB43-6C1B-44C2-AAE9-20BB442EBB69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F2ECB-56B1-431C-A5A0-710EED1665F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="153">
   <si>
     <t>Basic Information</t>
   </si>
@@ -633,6 +633,9 @@
   </si>
   <si>
     <t>poor model fit- not useful</t>
+  </si>
+  <si>
+    <t>Some of the latent variable variances are estimated instead of fixed to 1. The model is re-estimated by scaling the latent variables by fixing their variances and freeing all factor loadings.</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1372,6 +1375,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1438,12 +1487,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,44 +1505,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1818,11 +1828,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1845,112 +1855,113 @@
     <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
     <col min="17" max="17" width="34.265625" style="5" customWidth="1"/>
     <col min="18" max="18" width="18.59765625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.3984375" style="2"/>
+    <col min="19" max="19" width="18.3984375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="77" t="s">
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="53" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="62" t="s">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="64" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="76"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="63"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="53"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="36" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="76"/>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53"/>
+    </row>
+    <row r="4" spans="1:19" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="38"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
@@ -1995,11 +2006,11 @@
       <c r="P4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="76"/>
-    </row>
-    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52" t="s">
+      <c r="Q4" s="54"/>
+      <c r="R4" s="53"/>
+    </row>
+    <row r="5" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="68" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2044,8 +2055,8 @@
       </c>
       <c r="R5" s="41"/>
     </row>
-    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53"/>
+    <row r="6" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="69"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2096,8 +2107,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="53"/>
+    <row r="7" spans="1:19" ht="108" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="69"/>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -2143,9 +2154,12 @@
         <v>123</v>
       </c>
       <c r="R7" s="41"/>
-    </row>
-    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="53"/>
+      <c r="S7" s="91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="69"/>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -2182,10 +2196,10 @@
       <c r="M8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="55"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="27" t="s">
         <v>58</v>
       </c>
@@ -2194,8 +2208,8 @@
       </c>
       <c r="R8" s="41"/>
     </row>
-    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="69"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
@@ -2237,9 +2251,12 @@
         <v>124</v>
       </c>
       <c r="R9" s="41"/>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="53"/>
+      <c r="S9" s="91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="69"/>
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
@@ -2261,9 +2278,10 @@
         <v>123</v>
       </c>
       <c r="R10" s="41"/>
-    </row>
-    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="53"/>
+      <c r="S10" s="92"/>
+    </row>
+    <row r="11" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="69"/>
       <c r="B11" s="18" t="s">
         <v>132</v>
       </c>
@@ -2303,9 +2321,12 @@
       </c>
       <c r="Q11" s="37"/>
       <c r="R11" s="41"/>
-    </row>
-    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53"/>
+      <c r="S11" s="91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="69"/>
       <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
@@ -2349,9 +2370,12 @@
         <v>125</v>
       </c>
       <c r="R12" s="41"/>
-    </row>
-    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="53"/>
+      <c r="S12" s="91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="69"/>
       <c r="B13" s="18" t="s">
         <v>70</v>
       </c>
@@ -2402,8 +2426,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="53"/>
+    <row r="14" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="69"/>
       <c r="B14" s="18" t="s">
         <v>75</v>
       </c>
@@ -2450,8 +2474,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="69"/>
       <c r="B15" s="18" t="s">
         <v>83</v>
       </c>
@@ -2500,8 +2524,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="53"/>
+    <row r="16" spans="1:19" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="69"/>
       <c r="B16" s="20" t="s">
         <v>86</v>
       </c>
@@ -2549,7 +2573,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="53"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
@@ -2601,7 +2625,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="53"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="18" t="s">
         <v>97</v>
       </c>
@@ -2629,7 +2653,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="53"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="18" t="s">
         <v>98</v>
       </c>
@@ -2659,7 +2683,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="53"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
@@ -2709,7 +2733,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="53"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="18" t="s">
         <v>90</v>
       </c>
@@ -2759,7 +2783,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="53"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
@@ -2809,7 +2833,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="53"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="23" t="s">
         <v>102</v>
       </c>
@@ -2853,9 +2877,10 @@
         <v>123</v>
       </c>
       <c r="R23" s="41"/>
+      <c r="S23" s="90"/>
     </row>
     <row r="24" spans="1:19" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="23" t="s">
         <v>104</v>
       </c>
@@ -2905,7 +2930,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="53"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="23" t="s">
         <v>107</v>
       </c>
@@ -2953,7 +2978,7 @@
       <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:19" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="53"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="23" t="s">
         <v>108</v>
       </c>
@@ -3003,7 +3028,7 @@
       <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:19" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="53"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="23" t="s">
         <v>113</v>
       </c>
@@ -3053,7 +3078,7 @@
       <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="53"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="23" t="s">
         <v>114</v>
       </c>
@@ -3081,7 +3106,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="53"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="28" t="s">
         <v>115</v>
       </c>
@@ -3123,43 +3148,43 @@
       <c r="P29" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="83" t="s">
+      <c r="Q29" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="R29" s="83" t="s">
+      <c r="R29" s="46" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="38.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="53"/>
-      <c r="B30" s="84" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="87"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
       <c r="Q30" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R30" s="88" t="s">
+      <c r="R30" s="48" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="53"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="23" t="s">
         <v>134</v>
       </c>
@@ -3201,8 +3226,8 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:19" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="53"/>
-      <c r="B32" s="84" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="47" t="s">
         <v>150</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -3222,12 +3247,12 @@
       <c r="O32" s="40"/>
       <c r="P32" s="40"/>
       <c r="Q32" s="40"/>
-      <c r="R32" s="88"/>
+      <c r="R32" s="48"/>
       <c r="S32" s="21"/>
     </row>
     <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="53"/>
-      <c r="B33" s="84" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="47" t="s">
         <v>135</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -3252,13 +3277,13 @@
       <c r="P33" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="Q33" s="89" t="s">
+      <c r="Q33" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="R33" s="88"/>
+      <c r="R33" s="48"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A34" s="53"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="33"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
@@ -3347,13 +3372,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C30:P30"/>
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A5:A34"/>
@@ -3369,6 +3387,13 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C30:P30"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9143E7C6-419A-4899-8D6C-2A10C059CD31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892AF070-73F8-4D1F-85A4-9C0AD89A5DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="151">
   <si>
     <t>Basic Information</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>Errors in R-code</t>
+  </si>
+  <si>
+    <t>Some of the latent variable variances are estimated instead of fixed to 1. The model is re-estimated by scaling the latent variables by fixing their variances and freeing all factor loadings.</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1371,6 +1374,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1437,12 +1467,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1470,27 +1494,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1808,138 +1816,138 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.265625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.59765625" style="5" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.7109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.73046875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="17.59765625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="78" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="61" t="s">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="63" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="62"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="33" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
@@ -1984,11 +1992,11 @@
       <c r="P4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-    </row>
-    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+    </row>
+    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="60" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2031,9 +2039,10 @@
       <c r="Q5" s="34" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="R5" s="85"/>
+    </row>
+    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="61"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2080,9 +2089,10 @@
       <c r="Q6" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="R6" s="37"/>
+    </row>
+    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="61"/>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -2127,9 +2137,12 @@
       <c r="Q7" s="34" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="R7" s="86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="61"/>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -2166,19 +2179,20 @@
       <c r="M8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="27" t="s">
         <v>58</v>
       </c>
       <c r="Q8" s="34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="R8" s="44"/>
+    </row>
+    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="61"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
@@ -2219,9 +2233,12 @@
       <c r="Q9" s="34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="R9" s="86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="61"/>
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
@@ -2242,9 +2259,10 @@
       <c r="Q10" s="34" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="61"/>
       <c r="B11" s="18" t="s">
         <v>130</v>
       </c>
@@ -2283,9 +2301,12 @@
         <v>48</v>
       </c>
       <c r="Q11" s="34"/>
-    </row>
-    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="R11" s="86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="61"/>
       <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
@@ -2328,9 +2349,12 @@
       <c r="Q12" s="34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="R12" s="86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="61"/>
       <c r="B13" s="18" t="s">
         <v>70</v>
       </c>
@@ -2377,9 +2401,10 @@
       <c r="Q13" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="R13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="61"/>
       <c r="B14" s="18" t="s">
         <v>75</v>
       </c>
@@ -2422,9 +2447,10 @@
       <c r="Q14" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="R14" s="44"/>
+    </row>
+    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="61"/>
       <c r="B15" s="18" t="s">
         <v>83</v>
       </c>
@@ -2469,9 +2495,10 @@
       <c r="Q15" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="R15" s="44"/>
+    </row>
+    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="61"/>
       <c r="B16" s="20" t="s">
         <v>86</v>
       </c>
@@ -2514,9 +2541,10 @@
       <c r="Q16" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="R16" s="44"/>
+    </row>
+    <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="61"/>
       <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
@@ -2563,9 +2591,10 @@
       <c r="Q17" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="R17" s="37"/>
+    </row>
+    <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="61"/>
       <c r="B18" s="18" t="s">
         <v>97</v>
       </c>
@@ -2588,9 +2617,10 @@
       <c r="Q18" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="R18" s="44"/>
+    </row>
+    <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="61"/>
       <c r="B19" s="18" t="s">
         <v>98</v>
       </c>
@@ -2615,9 +2645,10 @@
       <c r="Q19" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="R19" s="44"/>
+    </row>
+    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="61"/>
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
@@ -2662,9 +2693,10 @@
       <c r="Q20" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="R20" s="44"/>
+    </row>
+    <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="61"/>
       <c r="B21" s="18" t="s">
         <v>90</v>
       </c>
@@ -2706,12 +2738,13 @@
       <c r="P21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="84" t="s">
+      <c r="Q21" s="45" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="R21" s="44"/>
+    </row>
+    <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="61"/>
       <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
@@ -2756,9 +2789,10 @@
       <c r="Q22" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="R22" s="44"/>
+    </row>
+    <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="61"/>
       <c r="B23" s="23" t="s">
         <v>102</v>
       </c>
@@ -2801,9 +2835,10 @@
       <c r="Q23" s="34" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="R23" s="34"/>
+    </row>
+    <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="61"/>
       <c r="B24" s="23" t="s">
         <v>104</v>
       </c>
@@ -2846,9 +2881,10 @@
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="34"/>
-    </row>
-    <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="R24" s="41"/>
+    </row>
+    <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="61"/>
       <c r="B25" s="23" t="s">
         <v>107</v>
       </c>
@@ -2893,9 +2929,10 @@
       <c r="Q25" s="34" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="R25" s="44"/>
+    </row>
+    <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="61"/>
       <c r="B26" s="23" t="s">
         <v>108</v>
       </c>
@@ -2942,9 +2979,10 @@
       <c r="Q26" s="34" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="R26" s="44"/>
+    </row>
+    <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="61"/>
       <c r="B27" s="23" t="s">
         <v>113</v>
       </c>
@@ -2991,9 +3029,10 @@
       <c r="Q27" s="34" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="R27" s="44"/>
+    </row>
+    <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="61"/>
       <c r="B28" s="23" t="s">
         <v>114</v>
       </c>
@@ -3016,9 +3055,10 @@
       <c r="Q28" s="34" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
+      <c r="R28" s="44"/>
+    </row>
+    <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="61"/>
       <c r="B29" s="28" t="s">
         <v>115</v>
       </c>
@@ -3063,34 +3103,36 @@
       <c r="Q29" s="43" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+      <c r="R29" s="44"/>
+    </row>
+    <row r="30" spans="1:18" ht="38.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="61"/>
       <c r="B30" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="77"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="84"/>
       <c r="Q30" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="R30" s="85"/>
+    </row>
+    <row r="31" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="61"/>
       <c r="B31" s="23" t="s">
         <v>132</v>
       </c>
@@ -3129,9 +3171,10 @@
         <v>50</v>
       </c>
       <c r="Q31" s="34"/>
-    </row>
-    <row r="32" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="R31" s="85"/>
+    </row>
+    <row r="32" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="61"/>
       <c r="B32" s="42" t="s">
         <v>142</v>
       </c>
@@ -3150,10 +3193,10 @@
       <c r="O32" s="37"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="34"/>
-      <c r="R32" s="21"/>
-    </row>
-    <row r="33" spans="1:17" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
+      <c r="R32" s="87"/>
+    </row>
+    <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="61"/>
       <c r="B33" s="42" t="s">
         <v>133</v>
       </c>
@@ -3171,12 +3214,13 @@
       <c r="N33" s="39"/>
       <c r="O33" s="41"/>
       <c r="P33" s="41"/>
-      <c r="Q33" s="84" t="s">
+      <c r="Q33" s="45" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
+      <c r="R33" s="85"/>
+    </row>
+    <row r="34" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="61"/>
       <c r="B34" s="23" t="s">
         <v>144</v>
       </c>
@@ -3195,8 +3239,9 @@
       <c r="O34" s="44"/>
       <c r="P34" s="44"/>
       <c r="Q34" s="34"/>
-    </row>
-    <row r="35" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R34" s="85"/>
+    </row>
+    <row r="35" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="23" t="s">
         <v>145</v>
       </c>
@@ -3217,8 +3262,9 @@
       <c r="Q35" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R35" s="85"/>
+    </row>
+    <row r="36" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3234,7 +3280,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3250,7 +3296,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3266,7 +3312,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -3274,12 +3320,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A5:A34"/>
@@ -3296,6 +3336,12 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="C30:P30"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\Statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9143E7C6-419A-4899-8D6C-2A10C059CD31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B6385A-EB7D-4045-AB24-81525486013E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="151">
   <si>
     <t>Basic Information</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>Errors in R-code</t>
+  </si>
+  <si>
+    <t>Outputs vs Interpretation errors</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1241,11 +1244,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1371,6 +1385,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1437,12 +1478,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1470,26 +1505,14 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1805,13 +1828,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19831-7C20-4D34-AF7C-EEDA5511FDD6}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1833,113 +1856,119 @@
     <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
     <col min="17" max="17" width="34.7109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="2"/>
+    <col min="18" max="18" width="23" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="78" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="46" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="61" t="s">
+      <c r="S1" s="85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="63" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="62"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="86"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="33" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="86"/>
+    </row>
+    <row r="4" spans="1:19" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
@@ -1984,11 +2013,12 @@
       <c r="P4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-    </row>
-    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="87"/>
+    </row>
+    <row r="5" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2032,8 +2062,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+    <row r="6" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2081,8 +2111,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+    <row r="7" spans="1:19" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -2128,8 +2158,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+    <row r="8" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -2166,10 +2196,10 @@
       <c r="M8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="27" t="s">
         <v>58</v>
       </c>
@@ -2177,8 +2207,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+    <row r="9" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
@@ -2220,8 +2250,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+    <row r="10" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
@@ -2243,8 +2273,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+    <row r="11" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
       <c r="B11" s="18" t="s">
         <v>130</v>
       </c>
@@ -2284,8 +2314,8 @@
       </c>
       <c r="Q11" s="34"/>
     </row>
-    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+    <row r="12" spans="1:19" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
       <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
@@ -2329,8 +2359,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+    <row r="13" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
       <c r="B13" s="18" t="s">
         <v>70</v>
       </c>
@@ -2378,8 +2408,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+    <row r="14" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
       <c r="B14" s="18" t="s">
         <v>75</v>
       </c>
@@ -2423,8 +2453,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+    <row r="15" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
       <c r="B15" s="18" t="s">
         <v>83</v>
       </c>
@@ -2470,8 +2500,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+    <row r="16" spans="1:19" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
       <c r="B16" s="20" t="s">
         <v>86</v>
       </c>
@@ -2516,7 +2546,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
@@ -2565,7 +2595,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="18" t="s">
         <v>97</v>
       </c>
@@ -2590,7 +2620,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="18" t="s">
         <v>98</v>
       </c>
@@ -2617,7 +2647,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
@@ -2664,7 +2694,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="18" t="s">
         <v>90</v>
       </c>
@@ -2706,12 +2736,12 @@
       <c r="P21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="84" t="s">
+      <c r="Q21" s="45" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
@@ -2758,7 +2788,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="23" t="s">
         <v>102</v>
       </c>
@@ -2803,7 +2833,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="23" t="s">
         <v>104</v>
       </c>
@@ -2848,7 +2878,7 @@
       <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="23" t="s">
         <v>107</v>
       </c>
@@ -2895,7 +2925,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="23" t="s">
         <v>108</v>
       </c>
@@ -2944,7 +2974,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="23" t="s">
         <v>113</v>
       </c>
@@ -2993,7 +3023,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="23" t="s">
         <v>114</v>
       </c>
@@ -3018,7 +3048,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="28" t="s">
         <v>115</v>
       </c>
@@ -3065,32 +3095,32 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="77"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="84"/>
       <c r="Q30" s="37" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="23" t="s">
         <v>132</v>
       </c>
@@ -3131,7 +3161,7 @@
       <c r="Q31" s="34"/>
     </row>
     <row r="32" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="42" t="s">
         <v>142</v>
       </c>
@@ -3153,7 +3183,7 @@
       <c r="R32" s="21"/>
     </row>
     <row r="33" spans="1:17" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="42" t="s">
         <v>133</v>
       </c>
@@ -3171,12 +3201,12 @@
       <c r="N33" s="39"/>
       <c r="O33" s="41"/>
       <c r="P33" s="41"/>
-      <c r="Q33" s="84" t="s">
+      <c r="Q33" s="45" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="23" t="s">
         <v>144</v>
       </c>
@@ -3273,13 +3303,8 @@
       <c r="P39" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="23">
+    <mergeCell ref="S1:S4"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A5:A34"/>
@@ -3296,6 +3321,12 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="C30:P30"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berit\Documents\GitHub\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892AF070-73F8-4D1F-85A4-9C0AD89A5DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8F046-2E3F-447A-A7E5-3B59C1E6D1CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="149">
   <si>
     <t>Basic Information</t>
   </si>
@@ -617,13 +617,7 @@
     <t>Case28</t>
   </si>
   <si>
-    <t>clarify model</t>
-  </si>
-  <si>
     <t>model without sex</t>
-  </si>
-  <si>
-    <t>rename columns</t>
   </si>
   <si>
     <t>Errors in R-code</t>
@@ -687,7 +681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,12 +736,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -1248,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1374,131 +1362,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1816,138 +1801,138 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.265625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.265625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="5" customWidth="1"/>
     <col min="13" max="13" width="25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.59765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.1328125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.1328125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.73046875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="17.59765625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.3984375" style="2"/>
+    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.7109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="34.42578125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="R1" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="55"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="70" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="71"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="33" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
@@ -1992,11 +1977,11 @@
       <c r="P4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-    </row>
-    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="60" t="s">
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+    </row>
+    <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2039,10 +2024,10 @@
       <c r="Q5" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="R5" s="85"/>
-    </row>
-    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="61"/>
+      <c r="R5" s="45"/>
+    </row>
+    <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2091,8 +2076,8 @@
       </c>
       <c r="R6" s="37"/>
     </row>
-    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+    <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -2137,12 +2122,12 @@
       <c r="Q7" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="R7" s="86" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="61"/>
+      <c r="R7" s="46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -2179,10 +2164,10 @@
       <c r="M8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="O8" s="63"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="27" t="s">
         <v>58</v>
       </c>
@@ -2191,8 +2176,8 @@
       </c>
       <c r="R8" s="44"/>
     </row>
-    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="61"/>
+    <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
@@ -2233,12 +2218,12 @@
       <c r="Q9" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="86" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="R9" s="46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
@@ -2261,8 +2246,8 @@
       </c>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="61"/>
+    <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
       <c r="B11" s="18" t="s">
         <v>130</v>
       </c>
@@ -2301,12 +2286,12 @@
         <v>48</v>
       </c>
       <c r="Q11" s="34"/>
-      <c r="R11" s="86" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="61"/>
+      <c r="R11" s="46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
       <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
@@ -2349,12 +2334,12 @@
       <c r="Q12" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="R12" s="86" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="R12" s="46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
       <c r="B13" s="18" t="s">
         <v>70</v>
       </c>
@@ -2403,8 +2388,8 @@
       </c>
       <c r="R13" s="37"/>
     </row>
-    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="61"/>
+    <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
       <c r="B14" s="18" t="s">
         <v>75</v>
       </c>
@@ -2449,8 +2434,8 @@
       </c>
       <c r="R14" s="44"/>
     </row>
-    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="61"/>
+    <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
       <c r="B15" s="18" t="s">
         <v>83</v>
       </c>
@@ -2497,8 +2482,8 @@
       </c>
       <c r="R15" s="44"/>
     </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
       <c r="B16" s="20" t="s">
         <v>86</v>
       </c>
@@ -2543,8 +2528,8 @@
       </c>
       <c r="R16" s="44"/>
     </row>
-    <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+    <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
       <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
@@ -2593,8 +2578,8 @@
       </c>
       <c r="R17" s="37"/>
     </row>
-    <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="61"/>
+    <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
       <c r="B18" s="18" t="s">
         <v>97</v>
       </c>
@@ -2619,8 +2604,8 @@
       </c>
       <c r="R18" s="44"/>
     </row>
-    <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+    <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
       <c r="B19" s="18" t="s">
         <v>98</v>
       </c>
@@ -2647,8 +2632,8 @@
       </c>
       <c r="R19" s="44"/>
     </row>
-    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="61"/>
+    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
@@ -2695,8 +2680,8 @@
       </c>
       <c r="R20" s="44"/>
     </row>
-    <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="61"/>
+    <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="55"/>
       <c r="B21" s="18" t="s">
         <v>90</v>
       </c>
@@ -2738,13 +2723,11 @@
       <c r="P21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="45" t="s">
-        <v>148</v>
-      </c>
+      <c r="Q21" s="34"/>
       <c r="R21" s="44"/>
     </row>
-    <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
+    <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="55"/>
       <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
@@ -2791,8 +2774,8 @@
       </c>
       <c r="R22" s="44"/>
     </row>
-    <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
+    <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="55"/>
       <c r="B23" s="23" t="s">
         <v>102</v>
       </c>
@@ -2837,8 +2820,8 @@
       </c>
       <c r="R23" s="34"/>
     </row>
-    <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="61"/>
+    <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="55"/>
       <c r="B24" s="23" t="s">
         <v>104</v>
       </c>
@@ -2883,8 +2866,8 @@
       <c r="Q24" s="34"/>
       <c r="R24" s="41"/>
     </row>
-    <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
+    <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="55"/>
       <c r="B25" s="23" t="s">
         <v>107</v>
       </c>
@@ -2931,8 +2914,8 @@
       </c>
       <c r="R25" s="44"/>
     </row>
-    <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="61"/>
+    <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="55"/>
       <c r="B26" s="23" t="s">
         <v>108</v>
       </c>
@@ -2981,8 +2964,8 @@
       </c>
       <c r="R26" s="44"/>
     </row>
-    <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="61"/>
+    <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="55"/>
       <c r="B27" s="23" t="s">
         <v>113</v>
       </c>
@@ -3031,8 +3014,8 @@
       </c>
       <c r="R27" s="44"/>
     </row>
-    <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="61"/>
+    <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
       <c r="B28" s="23" t="s">
         <v>114</v>
       </c>
@@ -3053,12 +3036,12 @@
       <c r="O28" s="6"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R28" s="44"/>
     </row>
-    <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="61"/>
+    <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
       <c r="B29" s="28" t="s">
         <v>115</v>
       </c>
@@ -3105,34 +3088,34 @@
       </c>
       <c r="R29" s="44"/>
     </row>
-    <row r="30" spans="1:18" ht="38.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="61"/>
+    <row r="30" spans="1:18" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
       <c r="B30" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="84"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
       <c r="Q30" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="R30" s="85"/>
-    </row>
-    <row r="31" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="61"/>
+      <c r="R30" s="45"/>
+    </row>
+    <row r="31" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="55"/>
       <c r="B31" s="23" t="s">
         <v>132</v>
       </c>
@@ -3171,10 +3154,10 @@
         <v>50</v>
       </c>
       <c r="Q31" s="34"/>
-      <c r="R31" s="85"/>
-    </row>
-    <row r="32" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="61"/>
+      <c r="R31" s="45"/>
+    </row>
+    <row r="32" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="55"/>
       <c r="B32" s="42" t="s">
         <v>142</v>
       </c>
@@ -3193,10 +3176,10 @@
       <c r="O32" s="37"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="34"/>
-      <c r="R32" s="87"/>
-    </row>
-    <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="61"/>
+      <c r="R32" s="47"/>
+    </row>
+    <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="55"/>
       <c r="B33" s="42" t="s">
         <v>133</v>
       </c>
@@ -3214,13 +3197,11 @@
       <c r="N33" s="39"/>
       <c r="O33" s="41"/>
       <c r="P33" s="41"/>
-      <c r="Q33" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="R33" s="85"/>
-    </row>
-    <row r="34" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="61"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="45"/>
+    </row>
+    <row r="34" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="55"/>
       <c r="B34" s="23" t="s">
         <v>144</v>
       </c>
@@ -3239,9 +3220,9 @@
       <c r="O34" s="44"/>
       <c r="P34" s="44"/>
       <c r="Q34" s="34"/>
-      <c r="R34" s="85"/>
-    </row>
-    <row r="35" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R34" s="45"/>
+    </row>
+    <row r="35" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="23" t="s">
         <v>145</v>
       </c>
@@ -3262,9 +3243,9 @@
       <c r="Q35" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="R35" s="85"/>
-    </row>
-    <row r="36" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R35" s="45"/>
+    </row>
+    <row r="36" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3280,7 +3261,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3296,7 +3277,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3312,7 +3293,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -3320,6 +3301,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A5:A34"/>
@@ -3336,12 +3323,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="C30:P30"/>
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Tests_app3.xlsx
+++ b/Tests_app3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Tests\Confirmatory-factor-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Github Repositories\Confirmatory-factor-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8F046-2E3F-447A-A7E5-3B59C1E6D1CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7C36FA-D159-4456-B2D8-E5683FED0B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{740F734F-E3CE-4708-97FD-7DA20DC01FA8}"/>
   </bookViews>
@@ -702,12 +702,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -736,6 +730,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -1255,29 +1255,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1286,26 +1280,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,25 +1311,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1353,7 +1338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,29 +1351,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,92 +1406,83 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1801,10 +1801,10 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1831,204 +1831,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="81" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="43" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="64" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="66" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="33" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+    </row>
+    <row r="4" spans="1:18" s="9" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="R5" s="45"/>
+      <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
@@ -2068,17 +2068,17 @@
       <c r="O6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R6" s="37"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="7"/>
@@ -2095,7 +2095,7 @@
         <v>51</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -2104,7 +2104,7 @@
       <c r="K7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="17" t="s">
         <v>48</v>
       </c>
       <c r="M7" s="7" t="s">
@@ -2116,19 +2116,19 @@
       <c r="O7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="34" t="s">
+      <c r="Q7" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="R7" s="46" t="s">
+      <c r="R7" s="41" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2149,13 +2149,13 @@
       <c r="H8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>56</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -2164,21 +2164,21 @@
       <c r="M8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="O8" s="57"/>
-      <c r="P8" s="27" t="s">
+      <c r="O8" s="60"/>
+      <c r="P8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="R8" s="44"/>
+      <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7"/>
@@ -2191,7 +2191,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>56</v>
       </c>
       <c r="J9" s="7" t="s">
@@ -2212,55 +2212,55 @@
       <c r="O9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" s="34" t="s">
+      <c r="P9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="46" t="s">
+      <c r="R9" s="41" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="34" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="34"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="16" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="17" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="7" t="s">
@@ -2273,26 +2273,26 @@
       <c r="L11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>137</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="P11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="46" t="s">
+      <c r="P11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="41" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7"/>
@@ -2328,19 +2328,19 @@
       <c r="O12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="Q12" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="41" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="7"/>
@@ -2380,17 +2380,17 @@
       <c r="O13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P13" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="37" t="s">
+      <c r="Q13" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R13" s="37"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="7"/>
@@ -2426,17 +2426,17 @@
       <c r="O14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" s="37" t="s">
+      <c r="P14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R14" s="44"/>
+      <c r="R14" s="39"/>
     </row>
     <row r="15" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="7"/>
@@ -2447,7 +2447,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="83" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -2474,63 +2474,63 @@
       <c r="O15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="37" t="s">
+      <c r="P15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R15" s="44"/>
-    </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="20" t="s">
+      <c r="R15" s="39"/>
+    </row>
+    <row r="16" spans="1:18" s="19" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="58"/>
+      <c r="B16" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="19" t="s">
+      <c r="H16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="37" t="s">
+      <c r="M16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="44"/>
+      <c r="R16" s="39"/>
     </row>
     <row r="17" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="7"/>
@@ -2570,43 +2570,43 @@
       <c r="O17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="37" t="s">
+      <c r="P17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R17" s="37"/>
+      <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="19"/>
+      <c r="M18" s="17"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="37" t="s">
+      <c r="P18" s="22"/>
+      <c r="Q18" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R18" s="44"/>
+      <c r="R18" s="39"/>
     </row>
     <row r="19" spans="1:18" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="7"/>
@@ -2618,23 +2618,23 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="37" t="s">
+      <c r="P19" s="22"/>
+      <c r="Q19" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R19" s="44"/>
+      <c r="R19" s="39"/>
     </row>
     <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="7"/>
@@ -2672,28 +2672,28 @@
       <c r="O20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="37" t="s">
+      <c r="P20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="44"/>
+      <c r="R20" s="39"/>
     </row>
     <row r="21" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="84" t="s">
         <v>91</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="83" t="s">
         <v>93</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -2720,15 +2720,15 @@
       <c r="O21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="44"/>
+      <c r="P21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="39"/>
     </row>
     <row r="22" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="7"/>
@@ -2766,17 +2766,17 @@
       <c r="O22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="P22" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="37" t="s">
+      <c r="Q22" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R22" s="44"/>
+      <c r="R22" s="39"/>
     </row>
     <row r="23" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="7"/>
@@ -2812,17 +2812,17 @@
       <c r="O23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" s="34" t="s">
+      <c r="P23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="R23" s="34"/>
+      <c r="R23" s="30"/>
     </row>
     <row r="24" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="7"/>
@@ -2862,20 +2862,20 @@
       <c r="O24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="41"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="36"/>
     </row>
     <row r="25" spans="1:18" ht="53.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F25" s="7"/>
@@ -2906,24 +2906,24 @@
       <c r="O25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P25" s="27" t="s">
+      <c r="P25" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="Q25" s="34" t="s">
+      <c r="Q25" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="R25" s="44"/>
+      <c r="R25" s="39"/>
     </row>
     <row r="26" spans="1:18" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="20" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>109</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -2956,17 +2956,17 @@
       <c r="O26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26" s="34" t="s">
+      <c r="P26" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="R26" s="44"/>
+      <c r="R26" s="39"/>
     </row>
     <row r="27" spans="1:18" ht="52.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C27" s="7"/>
@@ -3006,20 +3006,20 @@
       <c r="O27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P27" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q27" s="34" t="s">
+      <c r="P27" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="R27" s="44"/>
+      <c r="R27" s="39"/>
     </row>
     <row r="28" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="86" t="s">
         <v>116</v>
       </c>
       <c r="D28" s="6"/>
@@ -3034,111 +3034,111 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="34" t="s">
+      <c r="P28" s="22"/>
+      <c r="Q28" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="R28" s="44"/>
+      <c r="R28" s="39"/>
     </row>
     <row r="29" spans="1:18" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="31" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="29" t="s">
+      <c r="G29" s="26"/>
+      <c r="H29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N29" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" s="29" t="s">
+      <c r="N29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="P29" s="32" t="s">
+      <c r="P29" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="43" t="s">
+      <c r="Q29" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="R29" s="44"/>
+      <c r="R29" s="39"/>
     </row>
     <row r="30" spans="1:18" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="37" t="s">
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R30" s="45"/>
+      <c r="R30" s="40"/>
     </row>
     <row r="31" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="39"/>
+      <c r="D31" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="34"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" s="39" t="s">
+      <c r="H31" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="34" t="s">
         <v>50</v>
       </c>
       <c r="M31" s="7" t="s">
@@ -3147,62 +3147,62 @@
       <c r="N31" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="O31" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="P31" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="45"/>
+      <c r="O31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="40"/>
     </row>
     <row r="32" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="42" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="47"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="1:18" ht="39.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="42" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="45"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="40"/>
     </row>
     <row r="34" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="20" t="s">
         <v>144</v>
       </c>
       <c r="C34" s="6"/>
@@ -3217,13 +3217,13 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="45"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="40"/>
     </row>
     <row r="35" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="20" t="s">
         <v>145</v>
       </c>
       <c r="C35" s="6"/>
@@ -3238,12 +3238,12 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="37" t="s">
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R35" s="45"/>
+      <c r="R35" s="40"/>
     </row>
     <row r="36" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
@@ -3301,12 +3301,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R1:R4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A5:A34"/>
@@ -3323,6 +3317,12 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="C30:P30"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
